--- a/Phu Tho.xlsx
+++ b/Phu Tho.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1352"/>
+  <dimension ref="A1:E1358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -644,17 +644,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Đào</t>
+          <t>Phan</t>
         </is>
       </c>
       <c r="C14">
-        <v>25558</v>
+        <v>20736</v>
       </c>
       <c r="D14">
         <v>1442913</v>
       </c>
       <c r="E14">
-        <v>1.771277963397655</v>
+        <v>1.437092880859761</v>
       </c>
     </row>
     <row r="15">
@@ -665,17 +665,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Phan</t>
+          <t>Đào</t>
         </is>
       </c>
       <c r="C15">
-        <v>20736</v>
+        <v>19524</v>
       </c>
       <c r="D15">
         <v>1442913</v>
       </c>
       <c r="E15">
-        <v>1.437092880859761</v>
+        <v>1.353096132615064</v>
       </c>
     </row>
     <row r="16">
@@ -959,17 +959,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Kiều</t>
+          <t>Đoàn</t>
         </is>
       </c>
       <c r="C29">
-        <v>4167</v>
+        <v>6274</v>
       </c>
       <c r="D29">
         <v>1442913</v>
       </c>
       <c r="E29">
-        <v>0.2887908002769398</v>
+        <v>0.4348148502369859</v>
       </c>
     </row>
     <row r="30">
@@ -980,17 +980,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cù</t>
+          <t>Kiều</t>
         </is>
       </c>
       <c r="C30">
-        <v>3886</v>
+        <v>4167</v>
       </c>
       <c r="D30">
         <v>1442913</v>
       </c>
       <c r="E30">
-        <v>0.2693163066657518</v>
+        <v>0.2887908002769398</v>
       </c>
     </row>
     <row r="31">
@@ -1001,17 +1001,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Lý</t>
+          <t>Cù</t>
         </is>
       </c>
       <c r="C31">
-        <v>3447</v>
+        <v>3886</v>
       </c>
       <c r="D31">
         <v>1442913</v>
       </c>
       <c r="E31">
-        <v>0.2388917419137536</v>
+        <v>0.2693163066657518</v>
       </c>
     </row>
     <row r="32">
@@ -1022,17 +1022,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Hồ</t>
+          <t>Lý</t>
         </is>
       </c>
       <c r="C32">
-        <v>3124</v>
+        <v>3447</v>
       </c>
       <c r="D32">
         <v>1442913</v>
       </c>
       <c r="E32">
-        <v>0.2165064698980465</v>
+        <v>0.2388917419137536</v>
       </c>
     </row>
     <row r="33">
@@ -1043,17 +1043,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tống</t>
+          <t>Hồ</t>
         </is>
       </c>
       <c r="C33">
-        <v>2693</v>
+        <v>3124</v>
       </c>
       <c r="D33">
         <v>1442913</v>
       </c>
       <c r="E33">
-        <v>0.1866363391278615</v>
+        <v>0.2165064698980465</v>
       </c>
     </row>
     <row r="34">
@@ -1064,17 +1064,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Khuất</t>
+          <t>Tống</t>
         </is>
       </c>
       <c r="C34">
-        <v>2602</v>
+        <v>2693</v>
       </c>
       <c r="D34">
         <v>1442913</v>
       </c>
       <c r="E34">
-        <v>0.1803296525847366</v>
+        <v>0.1866363391278615</v>
       </c>
     </row>
     <row r="35">
@@ -1085,17 +1085,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Khổng</t>
+          <t>Khuất</t>
         </is>
       </c>
       <c r="C35">
-        <v>2424</v>
+        <v>2602</v>
       </c>
       <c r="D35">
         <v>1442913</v>
       </c>
       <c r="E35">
-        <v>0.1679934964893933</v>
+        <v>0.1803296525847366</v>
       </c>
     </row>
     <row r="36">
@@ -1106,17 +1106,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Đàm</t>
+          <t>Khổng</t>
         </is>
       </c>
       <c r="C36">
-        <v>2293</v>
+        <v>2424</v>
       </c>
       <c r="D36">
         <v>1442913</v>
       </c>
       <c r="E36">
-        <v>0.1589146400372025</v>
+        <v>0.1679934964893933</v>
       </c>
     </row>
     <row r="37">
@@ -1127,17 +1127,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Vương</t>
+          <t>Đàm</t>
         </is>
       </c>
       <c r="C37">
-        <v>2231</v>
+        <v>2293</v>
       </c>
       <c r="D37">
         <v>1442913</v>
       </c>
       <c r="E37">
-        <v>0.1546177766781504</v>
+        <v>0.1589146400372025</v>
       </c>
     </row>
     <row r="38">
@@ -1148,17 +1148,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Lại</t>
+          <t>Vương</t>
         </is>
       </c>
       <c r="C38">
-        <v>2170</v>
+        <v>2231</v>
       </c>
       <c r="D38">
         <v>1442913</v>
       </c>
       <c r="E38">
-        <v>0.1503902175668249</v>
+        <v>0.1546177766781504</v>
       </c>
     </row>
     <row r="39">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Lã</t>
+          <t>Lại</t>
         </is>
       </c>
       <c r="C39">
-        <v>2148</v>
+        <v>2170</v>
       </c>
       <c r="D39">
         <v>1442913</v>
       </c>
       <c r="E39">
-        <v>0.1488655241168386</v>
+        <v>0.1503902175668249</v>
       </c>
     </row>
     <row r="40">
@@ -1190,17 +1190,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Tô</t>
+          <t>Lã</t>
         </is>
       </c>
       <c r="C40">
-        <v>2113</v>
+        <v>2148</v>
       </c>
       <c r="D40">
         <v>1442913</v>
       </c>
       <c r="E40">
-        <v>0.146439875446406</v>
+        <v>0.1488655241168386</v>
       </c>
     </row>
     <row r="41">
@@ -1211,17 +1211,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Chử</t>
+          <t>Tô</t>
         </is>
       </c>
       <c r="C41">
-        <v>1859</v>
+        <v>2113</v>
       </c>
       <c r="D41">
         <v>1442913</v>
       </c>
       <c r="E41">
-        <v>0.1288365965238376</v>
+        <v>0.146439875446406</v>
       </c>
     </row>
     <row r="42">
@@ -1232,17 +1232,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Bàn</t>
+          <t>Chử</t>
         </is>
       </c>
       <c r="C42">
-        <v>1754</v>
+        <v>1859</v>
       </c>
       <c r="D42">
         <v>1442913</v>
       </c>
       <c r="E42">
-        <v>0.1215596505125396</v>
+        <v>0.1288365965238376</v>
       </c>
     </row>
     <row r="43">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>Bàn</t>
         </is>
       </c>
       <c r="C43">
-        <v>1652</v>
+        <v>1754</v>
       </c>
       <c r="D43">
         <v>1442913</v>
       </c>
       <c r="E43">
-        <v>0.1144906172444215</v>
+        <v>0.1215596505125396</v>
       </c>
     </row>
     <row r="44">
@@ -1274,17 +1274,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ngọc</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="C44">
-        <v>1562</v>
+        <v>1652</v>
       </c>
       <c r="D44">
         <v>1442913</v>
       </c>
       <c r="E44">
-        <v>0.1082532349490233</v>
+        <v>0.1144906172444215</v>
       </c>
     </row>
     <row r="45">
@@ -1295,17 +1295,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Quách</t>
+          <t>Ngọc</t>
         </is>
       </c>
       <c r="C45">
-        <v>1476</v>
+        <v>1562</v>
       </c>
       <c r="D45">
         <v>1442913</v>
       </c>
       <c r="E45">
-        <v>0.1022930696445316</v>
+        <v>0.1082532349490233</v>
       </c>
     </row>
     <row r="46">
@@ -1316,17 +1316,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Phí</t>
+          <t>Quách</t>
         </is>
       </c>
       <c r="C46">
-        <v>1348</v>
+        <v>1476</v>
       </c>
       <c r="D46">
         <v>1442913</v>
       </c>
       <c r="E46">
-        <v>0.09342212593552071</v>
+        <v>0.1022930696445316</v>
       </c>
     </row>
     <row r="47">
@@ -1337,17 +1337,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Hạ</t>
+          <t>Phí</t>
         </is>
       </c>
       <c r="C47">
-        <v>1274</v>
+        <v>1348</v>
       </c>
       <c r="D47">
         <v>1442913</v>
       </c>
       <c r="E47">
-        <v>0.08829361160374881</v>
+        <v>0.09342212593552071</v>
       </c>
     </row>
     <row r="48">
@@ -1358,17 +1358,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sa</t>
+          <t>Hạ</t>
         </is>
       </c>
       <c r="C48">
-        <v>1198</v>
+        <v>1274</v>
       </c>
       <c r="D48">
         <v>1442913</v>
       </c>
       <c r="E48">
-        <v>0.0830264887765236</v>
+        <v>0.08829361160374881</v>
       </c>
     </row>
     <row r="49">
@@ -1379,17 +1379,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Dư</t>
+          <t>Sa</t>
         </is>
       </c>
       <c r="C49">
-        <v>1104</v>
+        <v>1198</v>
       </c>
       <c r="D49">
         <v>1442913</v>
       </c>
       <c r="E49">
-        <v>0.07651188949021875</v>
+        <v>0.0830264887765236</v>
       </c>
     </row>
     <row r="50">
@@ -1400,17 +1400,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Quản</t>
+          <t>Dư</t>
         </is>
       </c>
       <c r="C50">
-        <v>1079</v>
+        <v>1104</v>
       </c>
       <c r="D50">
         <v>1442913</v>
       </c>
       <c r="E50">
-        <v>0.07477928329705257</v>
+        <v>0.07651188949021875</v>
       </c>
     </row>
     <row r="51">
@@ -1421,17 +1421,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Lâm</t>
+          <t>Quản</t>
         </is>
       </c>
       <c r="C51">
-        <v>1058</v>
+        <v>1079</v>
       </c>
       <c r="D51">
         <v>1442913</v>
       </c>
       <c r="E51">
-        <v>0.07332389409479295</v>
+        <v>0.07477928329705257</v>
       </c>
     </row>
     <row r="52">
@@ -1442,17 +1442,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Nghiêm</t>
+          <t>Lâm</t>
         </is>
       </c>
       <c r="C52">
-        <v>1051</v>
+        <v>1058</v>
       </c>
       <c r="D52">
         <v>1442913</v>
       </c>
       <c r="E52">
-        <v>0.07283876436070642</v>
+        <v>0.07332389409479295</v>
       </c>
     </row>
     <row r="53">
@@ -1463,17 +1463,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Thiều</t>
+          <t>Nghiêm</t>
         </is>
       </c>
       <c r="C53">
-        <v>1032</v>
+        <v>1051</v>
       </c>
       <c r="D53">
         <v>1442913</v>
       </c>
       <c r="E53">
-        <v>0.07152198365390013</v>
+        <v>0.07283876436070642</v>
       </c>
     </row>
     <row r="54">
@@ -1484,17 +1484,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Võ</t>
+          <t>Thiều</t>
         </is>
       </c>
       <c r="C54">
-        <v>890</v>
+        <v>1032</v>
       </c>
       <c r="D54">
         <v>1442913</v>
       </c>
       <c r="E54">
-        <v>0.0616807804767162</v>
+        <v>0.07152198365390013</v>
       </c>
     </row>
     <row r="55">
@@ -1505,17 +1505,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Xa</t>
+          <t>Võ</t>
         </is>
       </c>
       <c r="C55">
-        <v>791</v>
+        <v>890</v>
       </c>
       <c r="D55">
         <v>1442913</v>
       </c>
       <c r="E55">
-        <v>0.05481965995177811</v>
+        <v>0.0616807804767162</v>
       </c>
     </row>
     <row r="56">
@@ -1526,17 +1526,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Nông</t>
+          <t>Xa</t>
         </is>
       </c>
       <c r="C56">
-        <v>678</v>
+        <v>791</v>
       </c>
       <c r="D56">
         <v>1442913</v>
       </c>
       <c r="E56">
-        <v>0.04698827995866695</v>
+        <v>0.05481965995177811</v>
       </c>
     </row>
     <row r="57">
@@ -1547,17 +1547,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Điêu</t>
+          <t>Nông</t>
         </is>
       </c>
       <c r="C57">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D57">
         <v>1442913</v>
       </c>
       <c r="E57">
-        <v>0.0469189757109403</v>
+        <v>0.04698827995866695</v>
       </c>
     </row>
     <row r="58">
@@ -1568,17 +1568,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Giang</t>
+          <t>Điêu</t>
         </is>
       </c>
       <c r="C58">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="D58">
         <v>1442913</v>
       </c>
       <c r="E58">
-        <v>0.04657245447230706</v>
+        <v>0.0469189757109403</v>
       </c>
     </row>
     <row r="59">
@@ -1589,17 +1589,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Doãn</t>
+          <t>Giang</t>
         </is>
       </c>
       <c r="C59">
-        <v>624</v>
+        <v>672</v>
       </c>
       <c r="D59">
         <v>1442913</v>
       </c>
       <c r="E59">
-        <v>0.04324585058142798</v>
+        <v>0.04657245447230706</v>
       </c>
     </row>
     <row r="60">
@@ -1610,17 +1610,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Trình</t>
+          <t>Doãn</t>
         </is>
       </c>
       <c r="C60">
-        <v>598</v>
+        <v>624</v>
       </c>
       <c r="D60">
         <v>1442913</v>
       </c>
       <c r="E60">
-        <v>0.04144394014053515</v>
+        <v>0.04324585058142798</v>
       </c>
     </row>
     <row r="61">
@@ -1631,17 +1631,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Lò</t>
+          <t>Trình</t>
         </is>
       </c>
       <c r="C61">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="D61">
         <v>1442913</v>
       </c>
       <c r="E61">
-        <v>0.04054298492008874</v>
+        <v>0.04144394014053515</v>
       </c>
     </row>
     <row r="62">
@@ -1652,17 +1652,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ha</t>
+          <t>Lò</t>
         </is>
       </c>
       <c r="C62">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="D62">
         <v>1442913</v>
       </c>
       <c r="E62">
-        <v>0.03964202969964232</v>
+        <v>0.04054298492008874</v>
       </c>
     </row>
     <row r="63">
@@ -1673,17 +1673,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Tăng</t>
+          <t>Ha</t>
         </is>
       </c>
       <c r="C63">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="D63">
         <v>1442913</v>
       </c>
       <c r="E63">
-        <v>0.0390182914701025</v>
+        <v>0.03964202969964232</v>
       </c>
     </row>
     <row r="64">
@@ -1694,17 +1694,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Mè</t>
+          <t>Tăng</t>
         </is>
       </c>
       <c r="C64">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D64">
         <v>1442913</v>
       </c>
       <c r="E64">
-        <v>0.03874107447919591</v>
+        <v>0.0390182914701025</v>
       </c>
     </row>
     <row r="65">
@@ -1715,17 +1715,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Quyết</t>
+          <t>Mè</t>
         </is>
       </c>
       <c r="C65">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="D65">
         <v>1442913</v>
       </c>
       <c r="E65">
-        <v>0.03839455324056266</v>
+        <v>0.03874107447919591</v>
       </c>
     </row>
     <row r="66">
@@ -1736,17 +1736,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Huỳnh</t>
+          <t>Quyết</t>
         </is>
       </c>
       <c r="C66">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="D66">
         <v>1442913</v>
       </c>
       <c r="E66">
-        <v>0.03763220651556955</v>
+        <v>0.03839455324056266</v>
       </c>
     </row>
     <row r="67">
@@ -1757,17 +1757,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Lỗ</t>
+          <t>Huỳnh</t>
         </is>
       </c>
       <c r="C67">
-        <v>462</v>
+        <v>543</v>
       </c>
       <c r="D67">
         <v>1442913</v>
       </c>
       <c r="E67">
-        <v>0.0320185624497111</v>
+        <v>0.03763220651556955</v>
       </c>
     </row>
     <row r="68">
@@ -1778,17 +1778,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Vy</t>
+          <t>Lỗ</t>
         </is>
       </c>
       <c r="C68">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="D68">
         <v>1442913</v>
       </c>
       <c r="E68">
-        <v>0.0307017817429048</v>
+        <v>0.0320185624497111</v>
       </c>
     </row>
     <row r="69">
@@ -1799,17 +1799,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Hứa</t>
+          <t>Vy</t>
         </is>
       </c>
       <c r="C69">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="D69">
         <v>1442913</v>
       </c>
       <c r="E69">
-        <v>0.03014734776109163</v>
+        <v>0.0307017817429048</v>
       </c>
     </row>
     <row r="70">
@@ -1820,17 +1820,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Quyền</t>
+          <t>Hứa</t>
         </is>
       </c>
       <c r="C70">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="D70">
         <v>1442913</v>
       </c>
       <c r="E70">
-        <v>0.02855335006337873</v>
+        <v>0.03014734776109163</v>
       </c>
     </row>
     <row r="71">
@@ -1841,17 +1841,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Quyền</t>
         </is>
       </c>
       <c r="C71">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D71">
         <v>1442913</v>
       </c>
       <c r="E71">
-        <v>0.02848404581565209</v>
+        <v>0.02855335006337873</v>
       </c>
     </row>
     <row r="72">
@@ -1862,17 +1862,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Đồng</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="C72">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="D72">
         <v>1442913</v>
       </c>
       <c r="E72">
-        <v>0.02792961183383891</v>
+        <v>0.02848404581565209</v>
       </c>
     </row>
     <row r="73">
@@ -1883,17 +1883,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Bạch</t>
+          <t>Đồng</t>
         </is>
       </c>
       <c r="C73">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="D73">
         <v>1442913</v>
       </c>
       <c r="E73">
-        <v>0.02709796086111914</v>
+        <v>0.02792961183383891</v>
       </c>
     </row>
     <row r="74">
@@ -1904,17 +1904,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Thạch</t>
+          <t>Bạch</t>
         </is>
       </c>
       <c r="C74">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D74">
         <v>1442913</v>
       </c>
       <c r="E74">
-        <v>0.0268900481179392</v>
+        <v>0.02709796086111914</v>
       </c>
     </row>
     <row r="75">
@@ -1925,17 +1925,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cấn</t>
+          <t>Thạch</t>
         </is>
       </c>
       <c r="C75">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="D75">
         <v>1442913</v>
       </c>
       <c r="E75">
-        <v>0.02640491838385266</v>
+        <v>0.0268900481179392</v>
       </c>
     </row>
     <row r="76">
@@ -1946,17 +1946,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Thẩm</t>
+          <t>Cấn</t>
         </is>
       </c>
       <c r="C76">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D76">
         <v>1442913</v>
       </c>
       <c r="E76">
-        <v>0.02626630988839937</v>
+        <v>0.02640491838385266</v>
       </c>
     </row>
     <row r="77">
@@ -1967,17 +1967,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sái</t>
+          <t>Thẩm</t>
         </is>
       </c>
       <c r="C77">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D77">
         <v>1442913</v>
       </c>
       <c r="E77">
-        <v>0.02591978864976613</v>
+        <v>0.02626630988839937</v>
       </c>
     </row>
     <row r="78">
@@ -1988,17 +1988,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sùng</t>
+          <t>Sái</t>
         </is>
       </c>
       <c r="C78">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="D78">
         <v>1442913</v>
       </c>
       <c r="E78">
-        <v>0.02273179325434035</v>
+        <v>0.02591978864976613</v>
       </c>
     </row>
     <row r="79">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Văn</t>
+          <t>Sùng</t>
         </is>
       </c>
       <c r="C79">
@@ -2030,17 +2030,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>La</t>
+          <t>Văn</t>
         </is>
       </c>
       <c r="C80">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="D80">
         <v>1442913</v>
       </c>
       <c r="E80">
-        <v>0.01989031909754781</v>
+        <v>0.02273179325434035</v>
       </c>
     </row>
     <row r="81">
@@ -2051,17 +2051,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ninh</t>
+          <t>La</t>
         </is>
       </c>
       <c r="C81">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="D81">
         <v>1442913</v>
       </c>
       <c r="E81">
-        <v>0.01926658086800798</v>
+        <v>0.01989031909754781</v>
       </c>
     </row>
     <row r="82">
@@ -2072,17 +2072,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Quán</t>
+          <t>Ninh</t>
         </is>
       </c>
       <c r="C82">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D82">
         <v>1442913</v>
       </c>
       <c r="E82">
-        <v>0.0188507553816481</v>
+        <v>0.01926658086800798</v>
       </c>
     </row>
     <row r="83">
@@ -2093,17 +2093,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Đường</t>
+          <t>Quán</t>
         </is>
       </c>
       <c r="C83">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D83">
         <v>1442913</v>
       </c>
       <c r="E83">
-        <v>0.01857353839074151</v>
+        <v>0.0188507553816481</v>
       </c>
     </row>
     <row r="84">
@@ -2114,17 +2114,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Thân</t>
+          <t>Đường</t>
         </is>
       </c>
       <c r="C84">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D84">
         <v>1442913</v>
       </c>
       <c r="E84">
-        <v>0.01843492989528821</v>
+        <v>0.01857353839074151</v>
       </c>
     </row>
     <row r="85">
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Mùa</t>
+          <t>Thân</t>
         </is>
       </c>
       <c r="C85">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D85">
         <v>1442913</v>
       </c>
       <c r="E85">
-        <v>0.01801910440892833</v>
+        <v>0.01843492989528821</v>
       </c>
     </row>
     <row r="86">
@@ -2156,17 +2156,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Đoàn</t>
+          <t>Mùa</t>
         </is>
       </c>
       <c r="C86">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D86">
         <v>1442913</v>
       </c>
       <c r="E86">
-        <v>0.01746467042711515</v>
+        <v>0.01801910440892833</v>
       </c>
     </row>
     <row r="87">
@@ -2328,13 +2328,13 @@
         </is>
       </c>
       <c r="C94">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D94">
         <v>1442913</v>
       </c>
       <c r="E94">
-        <v>0.01379154529760284</v>
+        <v>0.01386084954532948</v>
       </c>
     </row>
     <row r="95">
@@ -3668,17 +3668,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Mễ</t>
+          <t>Thị</t>
         </is>
       </c>
       <c r="C158">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D158">
         <v>1442913</v>
       </c>
       <c r="E158">
-        <v>0.002841474156792544</v>
+        <v>0.002910778404519191</v>
       </c>
     </row>
     <row r="159">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Quan</t>
+          <t>Mễ</t>
         </is>
       </c>
       <c r="C159">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Yên</t>
+          <t>Quan</t>
         </is>
       </c>
       <c r="C160">
@@ -3731,17 +3731,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Khuât</t>
+          <t>Yên</t>
         </is>
       </c>
       <c r="C161">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D161">
         <v>1442913</v>
       </c>
       <c r="E161">
-        <v>0.002702865661339249</v>
+        <v>0.002841474156792544</v>
       </c>
     </row>
     <row r="162">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Lô</t>
+          <t>Khuât</t>
         </is>
       </c>
       <c r="C162">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Man</t>
+          <t>Lô</t>
         </is>
       </c>
       <c r="C163">
@@ -3794,17 +3794,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Thị</t>
+          <t>Man</t>
         </is>
       </c>
       <c r="C164">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D164">
         <v>1442913</v>
       </c>
       <c r="E164">
-        <v>0.002633561413612602</v>
+        <v>0.002702865661339249</v>
       </c>
     </row>
     <row r="165">
@@ -12782,7 +12782,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>ĐÔN</t>
+          <t>Đoàng</t>
         </is>
       </c>
       <c r="C592">
@@ -12803,7 +12803,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Đoỗ</t>
+          <t>ĐÔN</t>
         </is>
       </c>
       <c r="C593">
@@ -12824,7 +12824,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Du</t>
+          <t>Đoỗ</t>
         </is>
       </c>
       <c r="C594">
@@ -12845,7 +12845,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Dù</t>
+          <t>Du</t>
         </is>
       </c>
       <c r="C595">
@@ -12866,7 +12866,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Dùng</t>
+          <t>Dù</t>
         </is>
       </c>
       <c r="C596">
@@ -12887,7 +12887,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Dưng</t>
+          <t>Dùng</t>
         </is>
       </c>
       <c r="C597">
@@ -12908,7 +12908,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Duwơng</t>
+          <t>Dưng</t>
         </is>
       </c>
       <c r="C598">
@@ -12929,7 +12929,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>Ghu</t>
+          <t>Duwơng</t>
         </is>
       </c>
       <c r="C599">
@@ -12950,7 +12950,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Hă</t>
+          <t>Ghu</t>
         </is>
       </c>
       <c r="C600">
@@ -12971,7 +12971,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Hai</t>
+          <t>Hă</t>
         </is>
       </c>
       <c r="C601">
@@ -12992,7 +12992,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>han</t>
+          <t>Hai</t>
         </is>
       </c>
       <c r="C602">
@@ -13013,7 +13013,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Hằng</t>
+          <t>han</t>
         </is>
       </c>
       <c r="C603">
@@ -13034,7 +13034,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Hảng</t>
+          <t>Hằng</t>
         </is>
       </c>
       <c r="C604">
@@ -13055,7 +13055,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Haong</t>
+          <t>Hảng</t>
         </is>
       </c>
       <c r="C605">
@@ -13076,7 +13076,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Hat</t>
+          <t>Haong</t>
         </is>
       </c>
       <c r="C606">
@@ -13097,7 +13097,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Hay</t>
+          <t>Hat</t>
         </is>
       </c>
       <c r="C607">
@@ -13118,7 +13118,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>Hay</t>
         </is>
       </c>
       <c r="C608">
@@ -13139,7 +13139,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>hô</t>
+          <t>HO</t>
         </is>
       </c>
       <c r="C609">
@@ -13160,7 +13160,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Hộ</t>
+          <t>hô</t>
         </is>
       </c>
       <c r="C610">
@@ -13181,7 +13181,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Hỏa</t>
+          <t>Hộ</t>
         </is>
       </c>
       <c r="C611">
@@ -13202,7 +13202,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Hoán</t>
+          <t>Hỏa</t>
         </is>
       </c>
       <c r="C612">
@@ -13223,7 +13223,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Hoằng</t>
+          <t>Hoán</t>
         </is>
       </c>
       <c r="C613">
@@ -13244,7 +13244,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Hứu</t>
+          <t>Hoằng</t>
         </is>
       </c>
       <c r="C614">
@@ -13265,7 +13265,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>Iưu</t>
+          <t>Hứu</t>
         </is>
       </c>
       <c r="C615">
@@ -13286,7 +13286,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Ka</t>
+          <t>Iưu</t>
         </is>
       </c>
       <c r="C616">
@@ -13307,7 +13307,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Kê</t>
+          <t>Ka</t>
         </is>
       </c>
       <c r="C617">
@@ -13328,7 +13328,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Khấu</t>
+          <t>Kê</t>
         </is>
       </c>
       <c r="C618">
@@ -13349,7 +13349,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Khẩu</t>
+          <t>Khấu</t>
         </is>
       </c>
       <c r="C619">
@@ -13370,7 +13370,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Khong</t>
+          <t>Khẩu</t>
         </is>
       </c>
       <c r="C620">
@@ -13391,7 +13391,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>KHỔNG</t>
+          <t>Khong</t>
         </is>
       </c>
       <c r="C621">
@@ -13412,7 +13412,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Khuát</t>
+          <t>KHỔNG</t>
         </is>
       </c>
       <c r="C622">
@@ -13433,7 +13433,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>khương</t>
+          <t>Khuát</t>
         </is>
       </c>
       <c r="C623">
@@ -13454,7 +13454,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Kiên</t>
+          <t>khương</t>
         </is>
       </c>
       <c r="C624">
@@ -13475,7 +13475,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Kiềng</t>
+          <t>Kiên</t>
         </is>
       </c>
       <c r="C625">
@@ -13496,7 +13496,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Kiêù</t>
+          <t>Kiềng</t>
         </is>
       </c>
       <c r="C626">
@@ -13517,7 +13517,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>la</t>
+          <t>Kiêù</t>
         </is>
       </c>
       <c r="C627">
@@ -13538,7 +13538,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Lạ</t>
+          <t>la</t>
         </is>
       </c>
       <c r="C628">
@@ -13559,7 +13559,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Lèm</t>
+          <t>Lạ</t>
         </is>
       </c>
       <c r="C629">
@@ -13580,7 +13580,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Lì</t>
+          <t>Lèm</t>
         </is>
       </c>
       <c r="C630">
@@ -13601,7 +13601,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Lim</t>
+          <t>Lì</t>
         </is>
       </c>
       <c r="C631">
@@ -13622,7 +13622,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Lìu</t>
+          <t>Lim</t>
         </is>
       </c>
       <c r="C632">
@@ -13643,7 +13643,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>lù</t>
+          <t>Lìu</t>
         </is>
       </c>
       <c r="C633">
@@ -13664,7 +13664,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Lùi</t>
+          <t>lù</t>
         </is>
       </c>
       <c r="C634">
@@ -13685,7 +13685,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Lưỡng</t>
+          <t>Lùi</t>
         </is>
       </c>
       <c r="C635">
@@ -13706,7 +13706,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>luyện</t>
+          <t>Lưỡng</t>
         </is>
       </c>
       <c r="C636">
@@ -13727,7 +13727,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>LUYỆN</t>
+          <t>luyện</t>
         </is>
       </c>
       <c r="C637">
@@ -13748,7 +13748,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>Mã</t>
+          <t>LUYỆN</t>
         </is>
       </c>
       <c r="C638">
@@ -13769,7 +13769,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Mại</t>
+          <t>Mã</t>
         </is>
       </c>
       <c r="C639">
@@ -13790,7 +13790,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Mam</t>
+          <t>Mại</t>
         </is>
       </c>
       <c r="C640">
@@ -13811,7 +13811,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Matsushima</t>
+          <t>Mam</t>
         </is>
       </c>
       <c r="C641">
@@ -13832,7 +13832,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>mầu</t>
+          <t>Matsushima</t>
         </is>
       </c>
       <c r="C642">
@@ -13853,7 +13853,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>Me</t>
+          <t>mầu</t>
         </is>
       </c>
       <c r="C643">
@@ -13874,7 +13874,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>MÈ</t>
+          <t>Me</t>
         </is>
       </c>
       <c r="C644">
@@ -13895,7 +13895,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Mguyi</t>
+          <t>MÈ</t>
         </is>
       </c>
       <c r="C645">
@@ -13916,7 +13916,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Mỗ</t>
+          <t>Mguyi</t>
         </is>
       </c>
       <c r="C646">
@@ -13937,7 +13937,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Mộc</t>
+          <t>Mỗ</t>
         </is>
       </c>
       <c r="C647">
@@ -13958,7 +13958,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Mong</t>
+          <t>Mộc</t>
         </is>
       </c>
       <c r="C648">
@@ -13979,7 +13979,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Mong</t>
         </is>
       </c>
       <c r="C649">
@@ -14000,7 +14000,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Nai</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="C650">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Nga</t>
+          <t>Nai</t>
         </is>
       </c>
       <c r="C651">
@@ -14042,7 +14042,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Ngạc</t>
+          <t>Nga</t>
         </is>
       </c>
       <c r="C652">
@@ -14063,7 +14063,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>Nghiem</t>
+          <t>Ngạc</t>
         </is>
       </c>
       <c r="C653">
@@ -14084,7 +14084,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Nghiệm</t>
+          <t>Nghiem</t>
         </is>
       </c>
       <c r="C654">
@@ -14105,7 +14105,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Nghuễn</t>
+          <t>Nghiệm</t>
         </is>
       </c>
       <c r="C655">
@@ -14126,7 +14126,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>ngiyeen</t>
+          <t>Nghuễn</t>
         </is>
       </c>
       <c r="C656">
@@ -14147,7 +14147,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Ngồi</t>
+          <t>ngiyeen</t>
         </is>
       </c>
       <c r="C657">
@@ -14168,7 +14168,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Ngữ</t>
+          <t>Ngồi</t>
         </is>
       </c>
       <c r="C658">
@@ -14189,7 +14189,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>Nguyết</t>
+          <t>Ngữ</t>
         </is>
       </c>
       <c r="C659">
@@ -14210,7 +14210,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Nguyo</t>
+          <t>Nguyết</t>
         </is>
       </c>
       <c r="C660">
@@ -14231,7 +14231,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>Nhạc</t>
+          <t>Nguyo</t>
         </is>
       </c>
       <c r="C661">
@@ -14252,7 +14252,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Nhiên</t>
+          <t>Nhạc</t>
         </is>
       </c>
       <c r="C662">
@@ -14273,7 +14273,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Nong</t>
+          <t>Nhiên</t>
         </is>
       </c>
       <c r="C663">
@@ -14294,7 +14294,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Nữ</t>
+          <t>Nong</t>
         </is>
       </c>
       <c r="C664">
@@ -14315,7 +14315,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Nương</t>
+          <t>Nữ</t>
         </is>
       </c>
       <c r="C665">
@@ -14336,7 +14336,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>Nuyên</t>
+          <t>Nương</t>
         </is>
       </c>
       <c r="C666">
@@ -14357,7 +14357,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Ny</t>
+          <t>Nuyên</t>
         </is>
       </c>
       <c r="C667">
@@ -14378,7 +14378,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Ong</t>
+          <t>Ny</t>
         </is>
       </c>
       <c r="C668">
@@ -14399,7 +14399,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Pạm</t>
+          <t>Ong</t>
         </is>
       </c>
       <c r="C669">
@@ -14420,7 +14420,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Park</t>
+          <t>Pạm</t>
         </is>
       </c>
       <c r="C670">
@@ -14441,7 +14441,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>Phẩm</t>
+          <t>Park</t>
         </is>
       </c>
       <c r="C671">
@@ -14462,7 +14462,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>phạn</t>
+          <t>Phẩm</t>
         </is>
       </c>
       <c r="C672">
@@ -14483,7 +14483,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>Phạp</t>
+          <t>phạn</t>
         </is>
       </c>
       <c r="C673">
@@ -14504,7 +14504,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>PHÍ</t>
+          <t>Phạp</t>
         </is>
       </c>
       <c r="C674">
@@ -14525,7 +14525,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>Phim</t>
+          <t>PHÍ</t>
         </is>
       </c>
       <c r="C675">
@@ -14546,7 +14546,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Phsmj</t>
+          <t>Phim</t>
         </is>
       </c>
       <c r="C676">
@@ -14567,7 +14567,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Phsn</t>
+          <t>Phsmj</t>
         </is>
       </c>
       <c r="C677">
@@ -14588,7 +14588,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>Phùmg</t>
+          <t>Phsn</t>
         </is>
       </c>
       <c r="C678">
@@ -14609,7 +14609,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>Phũng</t>
+          <t>Phùmg</t>
         </is>
       </c>
       <c r="C679">
@@ -14630,7 +14630,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>PHƯƠNG</t>
+          <t>Phũng</t>
         </is>
       </c>
       <c r="C680">
@@ -14651,7 +14651,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Phượng</t>
+          <t>PHƯƠNG</t>
         </is>
       </c>
       <c r="C681">
@@ -14672,7 +14672,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>Qham</t>
+          <t>Phượng</t>
         </is>
       </c>
       <c r="C682">
@@ -14693,7 +14693,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>Quăn</t>
+          <t>Qham</t>
         </is>
       </c>
       <c r="C683">
@@ -14714,7 +14714,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>Quân</t>
+          <t>Quăn</t>
         </is>
       </c>
       <c r="C684">
@@ -14735,7 +14735,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>Quảng</t>
+          <t>Quân</t>
         </is>
       </c>
       <c r="C685">
@@ -14756,7 +14756,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Quoàng</t>
+          <t>Quảng</t>
         </is>
       </c>
       <c r="C686">
@@ -14777,7 +14777,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>sa</t>
+          <t>Quoàng</t>
         </is>
       </c>
       <c r="C687">
@@ -14798,7 +14798,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>Sâm</t>
+          <t>sa</t>
         </is>
       </c>
       <c r="C688">
@@ -14819,7 +14819,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Sân</t>
+          <t>Sâm</t>
         </is>
       </c>
       <c r="C689">
@@ -14840,7 +14840,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>Sình</t>
+          <t>Sân</t>
         </is>
       </c>
       <c r="C690">
@@ -14861,7 +14861,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>Soái</t>
+          <t>Sình</t>
         </is>
       </c>
       <c r="C691">
@@ -14882,7 +14882,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>Soái</t>
+          <t>Soái</t>
         </is>
       </c>
       <c r="C692">
@@ -14903,7 +14903,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>Sơn</t>
+          <t>Soái</t>
         </is>
       </c>
       <c r="C693">
@@ -14924,7 +14924,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>SƠN</t>
+          <t>Sơn</t>
         </is>
       </c>
       <c r="C694">
@@ -14945,7 +14945,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>Song</t>
+          <t>SƠN</t>
         </is>
       </c>
       <c r="C695">
@@ -14966,7 +14966,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>Sồng</t>
+          <t>Song</t>
         </is>
       </c>
       <c r="C696">
@@ -14987,7 +14987,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Sử</t>
+          <t>Sồng</t>
         </is>
       </c>
       <c r="C697">
@@ -15008,7 +15008,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>Sủng</t>
+          <t>Sử</t>
         </is>
       </c>
       <c r="C698">
@@ -15029,7 +15029,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>Sừng</t>
+          <t>Sủng</t>
         </is>
       </c>
       <c r="C699">
@@ -15050,7 +15050,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>Tải</t>
+          <t>Sừng</t>
         </is>
       </c>
       <c r="C700">
@@ -15071,7 +15071,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>tần</t>
+          <t>Tải</t>
         </is>
       </c>
       <c r="C701">
@@ -15092,7 +15092,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>Tàng</t>
+          <t>tần</t>
         </is>
       </c>
       <c r="C702">
@@ -15113,7 +15113,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>Tây</t>
+          <t>Tàng</t>
         </is>
       </c>
       <c r="C703">
@@ -15134,7 +15134,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>thiểu</t>
+          <t>Tây</t>
         </is>
       </c>
       <c r="C704">
@@ -15155,7 +15155,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>Thiệu</t>
+          <t>thiểu</t>
         </is>
       </c>
       <c r="C705">
@@ -15176,7 +15176,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>Tho</t>
+          <t>Thiệu</t>
         </is>
       </c>
       <c r="C706">
@@ -15197,7 +15197,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>Thôi</t>
+          <t>Tho</t>
         </is>
       </c>
       <c r="C707">
@@ -15218,7 +15218,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Thôi</t>
         </is>
       </c>
       <c r="C708">
@@ -15239,7 +15239,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Thương</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="C709">
@@ -15260,7 +15260,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Thuỳ</t>
+          <t>Thương</t>
         </is>
       </c>
       <c r="C710">
@@ -15281,7 +15281,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>Tiết</t>
+          <t>Thuỳ</t>
         </is>
       </c>
       <c r="C711">
@@ -15302,7 +15302,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>Tịnh</t>
+          <t>Tiết</t>
         </is>
       </c>
       <c r="C712">
@@ -15323,7 +15323,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>TÔ</t>
+          <t>Tịnh</t>
         </is>
       </c>
       <c r="C713">
@@ -15344,7 +15344,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>Tố</t>
+          <t>TÔ</t>
         </is>
       </c>
       <c r="C714">
@@ -15365,7 +15365,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>Tổ</t>
+          <t>Tố</t>
         </is>
       </c>
       <c r="C715">
@@ -15386,7 +15386,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>Tôi</t>
+          <t>Tổ</t>
         </is>
       </c>
       <c r="C716">
@@ -15407,7 +15407,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>Tỏng</t>
+          <t>Tôi</t>
         </is>
       </c>
       <c r="C717">
@@ -15428,7 +15428,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>Tra</t>
+          <t>Tỏng</t>
         </is>
       </c>
       <c r="C718">
@@ -15449,7 +15449,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>TRÁN</t>
+          <t>Tra</t>
         </is>
       </c>
       <c r="C719">
@@ -15470,7 +15470,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>Trí</t>
+          <t>TRÁN</t>
         </is>
       </c>
       <c r="C720">
@@ -15491,7 +15491,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>Trịêu</t>
+          <t>Trí</t>
         </is>
       </c>
       <c r="C721">
@@ -15512,7 +15512,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>Trọng</t>
+          <t>Trịêu</t>
         </is>
       </c>
       <c r="C722">
@@ -15533,7 +15533,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>Trúc</t>
+          <t>Trọng</t>
         </is>
       </c>
       <c r="C723">
@@ -15554,7 +15554,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>Truệu</t>
+          <t>Trúc</t>
         </is>
       </c>
       <c r="C724">
@@ -15575,7 +15575,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>Ttương</t>
+          <t>Truệu</t>
         </is>
       </c>
       <c r="C725">
@@ -15596,7 +15596,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>Tự</t>
+          <t>Ttương</t>
         </is>
       </c>
       <c r="C726">
@@ -15617,7 +15617,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>uông</t>
+          <t>Tự</t>
         </is>
       </c>
       <c r="C727">
@@ -15638,7 +15638,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>Vân</t>
+          <t>uông</t>
         </is>
       </c>
       <c r="C728">
@@ -15659,7 +15659,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Ví</t>
+          <t>Vân</t>
         </is>
       </c>
       <c r="C729">
@@ -15680,7 +15680,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Vô</t>
+          <t>Ví</t>
         </is>
       </c>
       <c r="C730">
@@ -15701,7 +15701,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>Vòng</t>
+          <t>Vô</t>
         </is>
       </c>
       <c r="C731">
@@ -15722,7 +15722,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Vư</t>
+          <t>Vòng</t>
         </is>
       </c>
       <c r="C732">
@@ -15743,7 +15743,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>Vui</t>
+          <t>Vư</t>
         </is>
       </c>
       <c r="C733">
@@ -15764,7 +15764,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>Vươmg</t>
+          <t>Vui</t>
         </is>
       </c>
       <c r="C734">
@@ -15785,7 +15785,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>Xạ</t>
+          <t>Vươmg</t>
         </is>
       </c>
       <c r="C735">
@@ -15806,7 +15806,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>Xẻ</t>
+          <t>Xạ</t>
         </is>
       </c>
       <c r="C736">
@@ -15827,7 +15827,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>Xeo</t>
+          <t>Xẻ</t>
         </is>
       </c>
       <c r="C737">
@@ -15848,7 +15848,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>Xin</t>
+          <t>Xeo</t>
         </is>
       </c>
       <c r="C738">
@@ -15869,17 +15869,17 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>(Đô</t>
+          <t>Xin</t>
         </is>
       </c>
       <c r="C739">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D739">
         <v>1442913</v>
       </c>
       <c r="E739">
-        <v>6.930424772664741e-05</v>
+        <v>0.0001386084954532948</v>
       </c>
     </row>
     <row r="740">
@@ -15890,7 +15890,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>À</t>
+          <t>(Đô</t>
         </is>
       </c>
       <c r="C740">
@@ -15911,7 +15911,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>Ần</t>
+          <t>À</t>
         </is>
       </c>
       <c r="C741">
@@ -15932,7 +15932,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>Ặng</t>
+          <t>Ần</t>
         </is>
       </c>
       <c r="C742">
@@ -15953,7 +15953,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>au</t>
+          <t>Ặng</t>
         </is>
       </c>
       <c r="C743">
@@ -15974,7 +15974,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>au</t>
         </is>
       </c>
       <c r="C744">
@@ -15995,7 +15995,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>BÁ</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C745">
@@ -16016,7 +16016,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>Bài</t>
+          <t>BÁ</t>
         </is>
       </c>
       <c r="C746">
@@ -16037,7 +16037,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>BÀN</t>
+          <t>Bài</t>
         </is>
       </c>
       <c r="C747">
@@ -16058,7 +16058,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>Bang</t>
+          <t>BÀN</t>
         </is>
       </c>
       <c r="C748">
@@ -16079,7 +16079,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>bàng</t>
+          <t>Bang</t>
         </is>
       </c>
       <c r="C749">
@@ -16100,7 +16100,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>Bao</t>
+          <t>bàng</t>
         </is>
       </c>
       <c r="C750">
@@ -16121,7 +16121,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>Bảo</t>
+          <t>Bao</t>
         </is>
       </c>
       <c r="C751">
@@ -16142,7 +16142,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>Bầu</t>
+          <t>Bảo</t>
         </is>
       </c>
       <c r="C752">
@@ -16163,7 +16163,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>Bế</t>
+          <t>Bầu</t>
         </is>
       </c>
       <c r="C753">
@@ -16184,7 +16184,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>Bề</t>
+          <t>Bế</t>
         </is>
       </c>
       <c r="C754">
@@ -16205,7 +16205,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>Bể</t>
+          <t>Bề</t>
         </is>
       </c>
       <c r="C755">
@@ -16226,7 +16226,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>Benazir</t>
+          <t>Bể</t>
         </is>
       </c>
       <c r="C756">
@@ -16247,7 +16247,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>Bguyeenx</t>
+          <t>Benazir</t>
         </is>
       </c>
       <c r="C757">
@@ -16268,7 +16268,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>Bhaf</t>
+          <t>Bguyeenx</t>
         </is>
       </c>
       <c r="C758">
@@ -16289,7 +16289,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>Bì</t>
+          <t>Bhaf</t>
         </is>
       </c>
       <c r="C759">
@@ -16310,7 +16310,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>bỉ</t>
+          <t>Bì</t>
         </is>
       </c>
       <c r="C760">
@@ -16331,7 +16331,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>Biểu</t>
+          <t>bỉ</t>
         </is>
       </c>
       <c r="C761">
@@ -16352,7 +16352,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>Biif</t>
+          <t>Biểu</t>
         </is>
       </c>
       <c r="C762">
@@ -16373,7 +16373,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>Bính</t>
+          <t>Biif</t>
         </is>
       </c>
       <c r="C763">
@@ -16394,7 +16394,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>Bình</t>
+          <t>Bính</t>
         </is>
       </c>
       <c r="C764">
@@ -16415,7 +16415,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>Bôn</t>
+          <t>Bình</t>
         </is>
       </c>
       <c r="C765">
@@ -16436,7 +16436,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>Bồn</t>
+          <t>Bôn</t>
         </is>
       </c>
       <c r="C766">
@@ -16457,7 +16457,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>Brui</t>
+          <t>Bồn</t>
         </is>
       </c>
       <c r="C767">
@@ -16478,7 +16478,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>Bù</t>
+          <t>Brui</t>
         </is>
       </c>
       <c r="C768">
@@ -16499,7 +16499,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>Buồn</t>
+          <t>Bù</t>
         </is>
       </c>
       <c r="C769">
@@ -16520,7 +16520,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>Bùy</t>
+          <t>Buồn</t>
         </is>
       </c>
       <c r="C770">
@@ -16541,7 +16541,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Bùy</t>
         </is>
       </c>
       <c r="C771">
@@ -16562,7 +16562,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>Ca</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C772">
@@ -16583,7 +16583,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>Cám</t>
+          <t>Ca</t>
         </is>
       </c>
       <c r="C773">
@@ -16604,7 +16604,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>Cấm</t>
+          <t>Cám</t>
         </is>
       </c>
       <c r="C774">
@@ -16625,7 +16625,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>cầm</t>
+          <t>Cấm</t>
         </is>
       </c>
       <c r="C775">
@@ -16646,7 +16646,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>Can</t>
+          <t>cầm</t>
         </is>
       </c>
       <c r="C776">
@@ -16667,7 +16667,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>Cắn</t>
+          <t>Can</t>
         </is>
       </c>
       <c r="C777">
@@ -16688,7 +16688,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>CẤn</t>
+          <t>Cắn</t>
         </is>
       </c>
       <c r="C778">
@@ -16709,7 +16709,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>Cẩn</t>
+          <t>CẤn</t>
         </is>
       </c>
       <c r="C779">
@@ -16730,7 +16730,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>Cận</t>
+          <t>Cẩn</t>
         </is>
       </c>
       <c r="C780">
@@ -16751,7 +16751,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>Cảnh</t>
+          <t>Cận</t>
         </is>
       </c>
       <c r="C781">
@@ -16772,7 +16772,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>cáo</t>
+          <t>Cảnh</t>
         </is>
       </c>
       <c r="C782">
@@ -16793,7 +16793,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>Cắt</t>
+          <t>cáo</t>
         </is>
       </c>
       <c r="C783">
@@ -16814,7 +16814,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>chang</t>
+          <t>Cắt</t>
         </is>
       </c>
       <c r="C784">
@@ -16835,7 +16835,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>cháng</t>
+          <t>chang</t>
         </is>
       </c>
       <c r="C785">
@@ -16856,7 +16856,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>Chằng</t>
+          <t>cháng</t>
         </is>
       </c>
       <c r="C786">
@@ -16877,7 +16877,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>Cheng</t>
+          <t>Chằng</t>
         </is>
       </c>
       <c r="C787">
@@ -16898,7 +16898,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>Cheo</t>
+          <t>Cheng</t>
         </is>
       </c>
       <c r="C788">
@@ -16919,7 +16919,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>Chhu</t>
+          <t>Cheo</t>
         </is>
       </c>
       <c r="C789">
@@ -16940,7 +16940,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>Chí</t>
+          <t>Chhu</t>
         </is>
       </c>
       <c r="C790">
@@ -16961,7 +16961,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>Chiang</t>
+          <t>Chí</t>
         </is>
       </c>
       <c r="C791">
@@ -16982,7 +16982,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>Chiều</t>
+          <t>Chiang</t>
         </is>
       </c>
       <c r="C792">
@@ -17003,7 +17003,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>chiu</t>
+          <t>Chiều</t>
         </is>
       </c>
       <c r="C793">
@@ -17024,7 +17024,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>Chíu</t>
+          <t>chiu</t>
         </is>
       </c>
       <c r="C794">
@@ -17045,7 +17045,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>Cho</t>
+          <t>Chíu</t>
         </is>
       </c>
       <c r="C795">
@@ -17066,7 +17066,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>Chọn</t>
+          <t>Cho</t>
         </is>
       </c>
       <c r="C796">
@@ -17087,7 +17087,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>Chù</t>
+          <t>Chọn</t>
         </is>
       </c>
       <c r="C797">
@@ -17108,7 +17108,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>Chũ</t>
+          <t>Chù</t>
         </is>
       </c>
       <c r="C798">
@@ -17129,7 +17129,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>chữ</t>
+          <t>Chũ</t>
         </is>
       </c>
       <c r="C799">
@@ -17150,7 +17150,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>chúc</t>
+          <t>chữ</t>
         </is>
       </c>
       <c r="C800">
@@ -17171,7 +17171,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>Chức</t>
+          <t>chúc</t>
         </is>
       </c>
       <c r="C801">
@@ -17192,7 +17192,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>Chươnh</t>
+          <t>Chức</t>
         </is>
       </c>
       <c r="C802">
@@ -17213,7 +17213,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>Cì</t>
+          <t>Chươnh</t>
         </is>
       </c>
       <c r="C803">
@@ -17234,7 +17234,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>Cju</t>
+          <t>Cì</t>
         </is>
       </c>
       <c r="C804">
@@ -17255,7 +17255,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>Co</t>
+          <t>Cju</t>
         </is>
       </c>
       <c r="C805">
@@ -17276,7 +17276,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>Có</t>
+          <t>Co</t>
         </is>
       </c>
       <c r="C806">
@@ -17297,7 +17297,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>Cô</t>
+          <t>Có</t>
         </is>
       </c>
       <c r="C807">
@@ -17318,7 +17318,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>cố</t>
+          <t>Cô</t>
         </is>
       </c>
       <c r="C808">
@@ -17339,7 +17339,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>CƠ</t>
+          <t>cố</t>
         </is>
       </c>
       <c r="C809">
@@ -17360,7 +17360,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>Coa</t>
+          <t>CƠ</t>
         </is>
       </c>
       <c r="C810">
@@ -17381,7 +17381,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>công</t>
+          <t>Coa</t>
         </is>
       </c>
       <c r="C811">
@@ -17402,7 +17402,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>Cũ</t>
+          <t>công</t>
         </is>
       </c>
       <c r="C812">
@@ -17423,7 +17423,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>Cu ̀Xuân</t>
+          <t>Cũ</t>
         </is>
       </c>
       <c r="C813">
@@ -17444,7 +17444,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>Cug</t>
+          <t>Cu ̀Xuân</t>
         </is>
       </c>
       <c r="C814">
@@ -17465,7 +17465,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>Cùng</t>
+          <t>Cug</t>
         </is>
       </c>
       <c r="C815">
@@ -17486,7 +17486,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>Cường</t>
+          <t>Cùng</t>
         </is>
       </c>
       <c r="C816">
@@ -17507,7 +17507,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>Cùt</t>
+          <t>Cường</t>
         </is>
       </c>
       <c r="C817">
@@ -17528,7 +17528,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>Cuù</t>
+          <t>Cùt</t>
         </is>
       </c>
       <c r="C818">
@@ -17549,7 +17549,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>Đã</t>
+          <t>Cuù</t>
         </is>
       </c>
       <c r="C819">
@@ -17570,7 +17570,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>Đắc</t>
+          <t>Đã</t>
         </is>
       </c>
       <c r="C820">
@@ -17591,7 +17591,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>Đaengj</t>
+          <t>Đắc</t>
         </is>
       </c>
       <c r="C821">
@@ -17612,7 +17612,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>đại</t>
+          <t>Đaengj</t>
         </is>
       </c>
       <c r="C822">
@@ -17633,7 +17633,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>đại</t>
+          <t>đại</t>
         </is>
       </c>
       <c r="C823">
@@ -17654,7 +17654,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>đam</t>
+          <t>đại</t>
         </is>
       </c>
       <c r="C824">
@@ -17675,7 +17675,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>Đạm</t>
+          <t>đam</t>
         </is>
       </c>
       <c r="C825">
@@ -17696,7 +17696,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>Đămgj</t>
+          <t>Đạm</t>
         </is>
       </c>
       <c r="C826">
@@ -17717,7 +17717,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>đan</t>
+          <t>Đămgj</t>
         </is>
       </c>
       <c r="C827">
@@ -17738,7 +17738,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>Đán</t>
+          <t>đan</t>
         </is>
       </c>
       <c r="C828">
@@ -17759,7 +17759,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>Đàn</t>
+          <t>Đán</t>
         </is>
       </c>
       <c r="C829">
@@ -17780,7 +17780,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>Đăn</t>
+          <t>Đàn</t>
         </is>
       </c>
       <c r="C830">
@@ -17801,7 +17801,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>Dậng</t>
+          <t>Đăn</t>
         </is>
       </c>
       <c r="C831">
@@ -17822,7 +17822,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>Đáng</t>
+          <t>Dậng</t>
         </is>
       </c>
       <c r="C832">
@@ -17843,7 +17843,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>Đàng</t>
+          <t>Đáng</t>
         </is>
       </c>
       <c r="C833">
@@ -17864,7 +17864,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>ĐĂNG</t>
+          <t>Đàng</t>
         </is>
       </c>
       <c r="C834">
@@ -17885,7 +17885,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>Đẵng</t>
+          <t>ĐĂNG</t>
         </is>
       </c>
       <c r="C835">
@@ -17906,7 +17906,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>Đâng</t>
+          <t>Đẵng</t>
         </is>
       </c>
       <c r="C836">
@@ -17927,7 +17927,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>Đảng</t>
+          <t>Đâng</t>
         </is>
       </c>
       <c r="C837">
@@ -17948,7 +17948,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>Ðăng</t>
+          <t>Đảng</t>
         </is>
       </c>
       <c r="C838">
@@ -17969,7 +17969,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>Đâò</t>
+          <t>Ðăng</t>
         </is>
       </c>
       <c r="C839">
@@ -17990,7 +17990,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>Đaongoc</t>
+          <t>Đâò</t>
         </is>
       </c>
       <c r="C840">
@@ -18011,7 +18011,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>Đaot</t>
+          <t>Đàomạnh</t>
         </is>
       </c>
       <c r="C841">
@@ -18032,7 +18032,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>Đặt</t>
+          <t>Đàominh</t>
         </is>
       </c>
       <c r="C842">
@@ -18053,7 +18053,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>Dậu</t>
+          <t>Đàon</t>
         </is>
       </c>
       <c r="C843">
@@ -18074,7 +18074,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>Đến</t>
+          <t>Đaongoc</t>
         </is>
       </c>
       <c r="C844">
@@ -18095,7 +18095,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>Dfoox</t>
+          <t>Đaot</t>
         </is>
       </c>
       <c r="C845">
@@ -18116,7 +18116,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>diệp</t>
+          <t>Đàothanh</t>
         </is>
       </c>
       <c r="C846">
@@ -18137,7 +18137,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>Điệp</t>
+          <t>Đặt</t>
         </is>
       </c>
       <c r="C847">
@@ -18158,7 +18158,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>Đieu</t>
+          <t>Dậu</t>
         </is>
       </c>
       <c r="C848">
@@ -18179,7 +18179,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>Điểu</t>
+          <t>Dđoàn</t>
         </is>
       </c>
       <c r="C849">
@@ -18200,7 +18200,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>Điẻu</t>
+          <t>Đến</t>
         </is>
       </c>
       <c r="C850">
@@ -18221,7 +18221,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>Đih</t>
+          <t>Dfoox</t>
         </is>
       </c>
       <c r="C851">
@@ -18242,7 +18242,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>diinh</t>
+          <t>diệp</t>
         </is>
       </c>
       <c r="C852">
@@ -18263,7 +18263,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>Điinh</t>
+          <t>Điệp</t>
         </is>
       </c>
       <c r="C853">
@@ -18284,7 +18284,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>ĐIinh</t>
+          <t>Đieu</t>
         </is>
       </c>
       <c r="C854">
@@ -18305,7 +18305,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>Điix</t>
+          <t>Điểu</t>
         </is>
       </c>
       <c r="C855">
@@ -18326,7 +18326,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>đimh</t>
+          <t>Điẻu</t>
         </is>
       </c>
       <c r="C856">
@@ -18347,7 +18347,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>Đih</t>
         </is>
       </c>
       <c r="C857">
@@ -18368,7 +18368,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>DO</t>
+          <t>diinh</t>
         </is>
       </c>
       <c r="C858">
@@ -18389,7 +18389,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>Dô</t>
+          <t>Điinh</t>
         </is>
       </c>
       <c r="C859">
@@ -18410,7 +18410,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>Dộ</t>
+          <t>ĐIinh</t>
         </is>
       </c>
       <c r="C860">
@@ -18431,7 +18431,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>Đõ</t>
+          <t>Điix</t>
         </is>
       </c>
       <c r="C861">
@@ -18452,7 +18452,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>Đở</t>
+          <t>đimh</t>
         </is>
       </c>
       <c r="C862">
@@ -18473,7 +18473,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>doan</t>
+          <t>do</t>
         </is>
       </c>
       <c r="C863">
@@ -18494,7 +18494,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>đoan</t>
+          <t>DO</t>
         </is>
       </c>
       <c r="C864">
@@ -18515,7 +18515,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>Đoãn</t>
+          <t>Dô</t>
         </is>
       </c>
       <c r="C865">
@@ -18536,7 +18536,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>Đoang</t>
+          <t>Dộ</t>
         </is>
       </c>
       <c r="C866">
@@ -18557,7 +18557,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>Đọc</t>
+          <t>Đõ</t>
         </is>
       </c>
       <c r="C867">
@@ -18578,7 +18578,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>Độc</t>
+          <t>Đở</t>
         </is>
       </c>
       <c r="C868">
@@ -18599,7 +18599,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>Đói</t>
+          <t>Đoàm</t>
         </is>
       </c>
       <c r="C869">
@@ -18620,7 +18620,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>Đới</t>
+          <t>doan</t>
         </is>
       </c>
       <c r="C870">
@@ -18641,7 +18641,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>Đời</t>
+          <t>đoan</t>
         </is>
       </c>
       <c r="C871">
@@ -18662,7 +18662,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>Đợi</t>
+          <t>Đoãn</t>
         </is>
       </c>
       <c r="C872">
@@ -18683,7 +18683,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>Đội</t>
+          <t>Đoang</t>
         </is>
       </c>
       <c r="C873">
@@ -18704,7 +18704,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>Đomh</t>
+          <t>Đọc</t>
         </is>
       </c>
       <c r="C874">
@@ -18725,7 +18725,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>Don</t>
+          <t>Độc</t>
         </is>
       </c>
       <c r="C875">
@@ -18746,7 +18746,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>Đơn</t>
+          <t>Đói</t>
         </is>
       </c>
       <c r="C876">
@@ -18767,7 +18767,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>Đòng</t>
+          <t>Đới</t>
         </is>
       </c>
       <c r="C877">
@@ -18788,7 +18788,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>ĐỒNG</t>
+          <t>Đời</t>
         </is>
       </c>
       <c r="C878">
@@ -18809,7 +18809,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>Đsm</t>
+          <t>Đợi</t>
         </is>
       </c>
       <c r="C879">
@@ -18830,7 +18830,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>Đso</t>
+          <t>Đội</t>
         </is>
       </c>
       <c r="C880">
@@ -18851,7 +18851,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>Đùi</t>
+          <t>Đomh</t>
         </is>
       </c>
       <c r="C881">
@@ -18872,7 +18872,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>Dưing</t>
+          <t>Don</t>
         </is>
       </c>
       <c r="C882">
@@ -18893,7 +18893,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>Đưng</t>
+          <t>Đơn</t>
         </is>
       </c>
       <c r="C883">
@@ -18914,7 +18914,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>Đựng</t>
+          <t>Đòng</t>
         </is>
       </c>
       <c r="C884">
@@ -18935,7 +18935,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>Duomg</t>
+          <t>ĐỒNG</t>
         </is>
       </c>
       <c r="C885">
@@ -18956,7 +18956,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>Duông</t>
+          <t>Đsm</t>
         </is>
       </c>
       <c r="C886">
@@ -18977,7 +18977,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>đương</t>
+          <t>Đso</t>
         </is>
       </c>
       <c r="C887">
@@ -18998,7 +18998,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>Dươngminh</t>
+          <t>Đùi</t>
         </is>
       </c>
       <c r="C888">
@@ -19019,7 +19019,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>DươngThanh</t>
+          <t>Dưing</t>
         </is>
       </c>
       <c r="C889">
@@ -19040,7 +19040,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>DươngTiến</t>
+          <t>Đưng</t>
         </is>
       </c>
       <c r="C890">
@@ -19061,7 +19061,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>Dupng</t>
+          <t>Đựng</t>
         </is>
       </c>
       <c r="C891">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>Duuong</t>
+          <t>Duomg</t>
         </is>
       </c>
       <c r="C892">
@@ -19103,7 +19103,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>Duương</t>
+          <t>Duông</t>
         </is>
       </c>
       <c r="C893">
@@ -19124,7 +19124,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>DUY</t>
+          <t>đương</t>
         </is>
       </c>
       <c r="C894">
@@ -19145,7 +19145,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>Duyên</t>
+          <t>Dươngminh</t>
         </is>
       </c>
       <c r="C895">
@@ -19166,7 +19166,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>Duyền</t>
+          <t>DươngThanh</t>
         </is>
       </c>
       <c r="C896">
@@ -19187,7 +19187,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>Fu</t>
+          <t>DươngTiến</t>
         </is>
       </c>
       <c r="C897">
@@ -19208,7 +19208,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>Già</t>
+          <t>Dupng</t>
         </is>
       </c>
       <c r="C898">
@@ -19229,7 +19229,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>giang</t>
+          <t>Duuong</t>
         </is>
       </c>
       <c r="C899">
@@ -19250,7 +19250,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>GIANG</t>
+          <t>Duương</t>
         </is>
       </c>
       <c r="C900">
@@ -19271,7 +19271,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>Giằng</t>
+          <t>DUY</t>
         </is>
       </c>
       <c r="C901">
@@ -19292,7 +19292,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>Gíang</t>
+          <t>Duyên</t>
         </is>
       </c>
       <c r="C902">
@@ -19313,7 +19313,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>Giành</t>
+          <t>Duyền</t>
         </is>
       </c>
       <c r="C903">
@@ -19334,7 +19334,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>GIÁP</t>
+          <t>Fu</t>
         </is>
       </c>
       <c r="C904">
@@ -19355,7 +19355,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>H'DLă</t>
+          <t>Già</t>
         </is>
       </c>
       <c r="C905">
@@ -19376,7 +19376,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>h’wuon</t>
+          <t>giang</t>
         </is>
       </c>
       <c r="C906">
@@ -19397,7 +19397,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>Hâ</t>
+          <t>GIANG</t>
         </is>
       </c>
       <c r="C907">
@@ -19418,7 +19418,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>hầ</t>
+          <t>Giằng</t>
         </is>
       </c>
       <c r="C908">
@@ -19439,7 +19439,7 @@
       </c>
       <c r="B909" t="inlineStr">
         <is>
-          <t>Hầ</t>
+          <t>Gíang</t>
         </is>
       </c>
       <c r="C909">
@@ -19460,7 +19460,7 @@
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>Hac</t>
+          <t>Giành</t>
         </is>
       </c>
       <c r="C910">
@@ -19481,7 +19481,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>hắc</t>
+          <t>GIÁP</t>
         </is>
       </c>
       <c r="C911">
@@ -19502,7 +19502,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>Hắc</t>
+          <t>H'DLă</t>
         </is>
       </c>
       <c r="C912">
@@ -19523,7 +19523,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>Had</t>
+          <t>h’wuon</t>
         </is>
       </c>
       <c r="C913">
@@ -19544,7 +19544,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>hag</t>
+          <t>Hâ</t>
         </is>
       </c>
       <c r="C914">
@@ -19565,7 +19565,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>Hạm</t>
+          <t>hầ</t>
         </is>
       </c>
       <c r="C915">
@@ -19586,7 +19586,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>Hăn</t>
+          <t>Hầ</t>
         </is>
       </c>
       <c r="C916">
@@ -19607,7 +19607,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>Hạn</t>
+          <t>Hac</t>
         </is>
       </c>
       <c r="C917">
@@ -19628,7 +19628,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>Hẳng</t>
+          <t>hắc</t>
         </is>
       </c>
       <c r="C918">
@@ -19649,7 +19649,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>Hánh</t>
+          <t>Hắc</t>
         </is>
       </c>
       <c r="C919">
@@ -19670,7 +19670,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>Hạnh</t>
+          <t>Had</t>
         </is>
       </c>
       <c r="C920">
@@ -19691,7 +19691,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>HánTuệ</t>
+          <t>hag</t>
         </is>
       </c>
       <c r="C921">
@@ -19712,7 +19712,7 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>HaPhúc</t>
+          <t>Hạm</t>
         </is>
       </c>
       <c r="C922">
@@ -19733,7 +19733,7 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>hat</t>
+          <t>Hăn</t>
         </is>
       </c>
       <c r="C923">
@@ -19754,7 +19754,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>Háu</t>
+          <t>Hạn</t>
         </is>
       </c>
       <c r="C924">
@@ -19775,7 +19775,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>Hâu</t>
+          <t>Hẳng</t>
         </is>
       </c>
       <c r="C925">
@@ -19796,7 +19796,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>Hậu</t>
+          <t>Hánh</t>
         </is>
       </c>
       <c r="C926">
@@ -19817,7 +19817,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>HaXuân</t>
+          <t>Hạnh</t>
         </is>
       </c>
       <c r="C927">
@@ -19838,7 +19838,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>Hhoangf</t>
+          <t>HánTuệ</t>
         </is>
       </c>
       <c r="C928">
@@ -19859,7 +19859,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>Hiền</t>
+          <t>HaPhúc</t>
         </is>
       </c>
       <c r="C929">
@@ -19880,7 +19880,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>Hiệp</t>
+          <t>hat</t>
         </is>
       </c>
       <c r="C930">
@@ -19901,7 +19901,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>hố</t>
+          <t>Háu</t>
         </is>
       </c>
       <c r="C931">
@@ -19922,7 +19922,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>Hỗ</t>
+          <t>Hâu</t>
         </is>
       </c>
       <c r="C932">
@@ -19943,7 +19943,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>Hổ</t>
+          <t>Hậu</t>
         </is>
       </c>
       <c r="C933">
@@ -19964,7 +19964,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>hơ</t>
+          <t>HaXuân</t>
         </is>
       </c>
       <c r="C934">
@@ -19985,7 +19985,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>hoa</t>
+          <t>Hhoangf</t>
         </is>
       </c>
       <c r="C935">
@@ -20006,7 +20006,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>Hoà</t>
+          <t>Hiền</t>
         </is>
       </c>
       <c r="C936">
@@ -20027,7 +20027,7 @@
       </c>
       <c r="B937" t="inlineStr">
         <is>
-          <t>Hoả</t>
+          <t>Hiệp</t>
         </is>
       </c>
       <c r="C937">
@@ -20048,7 +20048,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>Hoaàng</t>
+          <t>hố</t>
         </is>
       </c>
       <c r="C938">
@@ -20069,7 +20069,7 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>Hoaangf</t>
+          <t>Hỗ</t>
         </is>
       </c>
       <c r="C939">
@@ -20090,7 +20090,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>Hoamg</t>
+          <t>Hổ</t>
         </is>
       </c>
       <c r="C940">
@@ -20111,7 +20111,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>Hoàmg</t>
+          <t>hơ</t>
         </is>
       </c>
       <c r="C941">
@@ -20132,7 +20132,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>hoàn</t>
+          <t>hoa</t>
         </is>
       </c>
       <c r="C942">
@@ -20153,7 +20153,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>HOANG</t>
+          <t>Hoà</t>
         </is>
       </c>
       <c r="C943">
@@ -20174,7 +20174,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>Hoãng</t>
+          <t>Hoả</t>
         </is>
       </c>
       <c r="C944">
@@ -20195,7 +20195,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>Hoảng</t>
+          <t>Hoaàng</t>
         </is>
       </c>
       <c r="C945">
@@ -20216,7 +20216,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>Hòang</t>
+          <t>Hoaangf</t>
         </is>
       </c>
       <c r="C946">
@@ -20237,7 +20237,7 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>hoanh</t>
+          <t>Hoamg</t>
         </is>
       </c>
       <c r="C947">
@@ -20258,7 +20258,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>Hoành</t>
+          <t>Hoàmg</t>
         </is>
       </c>
       <c r="C948">
@@ -20279,7 +20279,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>hòng</t>
+          <t>hoàn</t>
         </is>
       </c>
       <c r="C949">
@@ -20300,7 +20300,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>Hòng</t>
+          <t>HOANG</t>
         </is>
       </c>
       <c r="C950">
@@ -20321,7 +20321,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>Hờng</t>
+          <t>Hoãng</t>
         </is>
       </c>
       <c r="C951">
@@ -20342,7 +20342,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>Hoồ</t>
+          <t>Hoảng</t>
         </is>
       </c>
       <c r="C952">
@@ -20363,7 +20363,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>hpang</t>
+          <t>Hòang</t>
         </is>
       </c>
       <c r="C953">
@@ -20384,7 +20384,7 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>HSBC</t>
+          <t>hoanh</t>
         </is>
       </c>
       <c r="C954">
@@ -20405,7 +20405,7 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>Hsj</t>
+          <t>Hoành</t>
         </is>
       </c>
       <c r="C955">
@@ -20426,7 +20426,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>Hua</t>
+          <t>hòng</t>
         </is>
       </c>
       <c r="C956">
@@ -20447,7 +20447,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>Hưá</t>
+          <t>Hòng</t>
         </is>
       </c>
       <c r="C957">
@@ -20468,7 +20468,7 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>Hứa</t>
+          <t>Hờng</t>
         </is>
       </c>
       <c r="C958">
@@ -20489,7 +20489,7 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>Huệ</t>
+          <t>Hoồ</t>
         </is>
       </c>
       <c r="C959">
@@ -20510,7 +20510,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>hùi</t>
+          <t>hpang</t>
         </is>
       </c>
       <c r="C960">
@@ -20531,7 +20531,7 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>Hung</t>
+          <t>HSBC</t>
         </is>
       </c>
       <c r="C961">
@@ -20552,7 +20552,7 @@
       </c>
       <c r="B962" t="inlineStr">
         <is>
-          <t>Húng</t>
+          <t>Hsj</t>
         </is>
       </c>
       <c r="C962">
@@ -20573,7 +20573,7 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>Hủng</t>
+          <t>Hua</t>
         </is>
       </c>
       <c r="C963">
@@ -20594,7 +20594,7 @@
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>Hướng</t>
+          <t>Hưá</t>
         </is>
       </c>
       <c r="C964">
@@ -20615,7 +20615,7 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>Hy</t>
+          <t>Hứa</t>
         </is>
       </c>
       <c r="C965">
@@ -20636,7 +20636,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>Iêu</t>
+          <t>Huệ</t>
         </is>
       </c>
       <c r="C966">
@@ -20657,7 +20657,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>Iương</t>
+          <t>hùi</t>
         </is>
       </c>
       <c r="C967">
@@ -20678,7 +20678,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Hung</t>
         </is>
       </c>
       <c r="C968">
@@ -20699,7 +20699,7 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>Kà</t>
+          <t>Húng</t>
         </is>
       </c>
       <c r="C969">
@@ -20720,7 +20720,7 @@
       </c>
       <c r="B970" t="inlineStr">
         <is>
-          <t>Ke</t>
+          <t>Hủng</t>
         </is>
       </c>
       <c r="C970">
@@ -20741,7 +20741,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>khang</t>
+          <t>Hướng</t>
         </is>
       </c>
       <c r="C971">
@@ -20762,7 +20762,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>Khâu</t>
+          <t>Hy</t>
         </is>
       </c>
       <c r="C972">
@@ -20783,7 +20783,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>Khoa</t>
+          <t>Iêu</t>
         </is>
       </c>
       <c r="C973">
@@ -20804,7 +20804,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>Khoản</t>
+          <t>Iương</t>
         </is>
       </c>
       <c r="C974">
@@ -20825,7 +20825,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>Khoang</t>
+          <t>K</t>
         </is>
       </c>
       <c r="C975">
@@ -20846,7 +20846,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>Khoáng</t>
+          <t>Kà</t>
         </is>
       </c>
       <c r="C976">
@@ -20867,7 +20867,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>Khống</t>
+          <t>Ke</t>
         </is>
       </c>
       <c r="C977">
@@ -20888,7 +20888,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>Khỗng</t>
+          <t>khang</t>
         </is>
       </c>
       <c r="C978">
@@ -20909,7 +20909,7 @@
       </c>
       <c r="B979" t="inlineStr">
         <is>
-          <t>Khộng</t>
+          <t>Khâu</t>
         </is>
       </c>
       <c r="C979">
@@ -20930,7 +20930,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>Khoonhr</t>
+          <t>Khoa</t>
         </is>
       </c>
       <c r="C980">
@@ -20951,7 +20951,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>Khứa</t>
+          <t>Khoản</t>
         </is>
       </c>
       <c r="C981">
@@ -20972,7 +20972,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>khuât</t>
+          <t>Khoang</t>
         </is>
       </c>
       <c r="C982">
@@ -20993,7 +20993,7 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>KHUẤT</t>
+          <t>Khoáng</t>
         </is>
       </c>
       <c r="C983">
@@ -21014,7 +21014,7 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>Khuật</t>
+          <t>Khống</t>
         </is>
       </c>
       <c r="C984">
@@ -21035,7 +21035,7 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>Khuấy</t>
+          <t>Khỗng</t>
         </is>
       </c>
       <c r="C985">
@@ -21056,7 +21056,7 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>Khuc</t>
+          <t>Khộng</t>
         </is>
       </c>
       <c r="C986">
@@ -21077,7 +21077,7 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>Khuot</t>
+          <t>Khoonhr</t>
         </is>
       </c>
       <c r="C987">
@@ -21098,7 +21098,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>Kiề</t>
+          <t>Khứa</t>
         </is>
       </c>
       <c r="C988">
@@ -21119,7 +21119,7 @@
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>Kiền</t>
+          <t>khuât</t>
         </is>
       </c>
       <c r="C989">
@@ -21140,7 +21140,7 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>kieu</t>
+          <t>KHUẤT</t>
         </is>
       </c>
       <c r="C990">
@@ -21161,7 +21161,7 @@
       </c>
       <c r="B991" t="inlineStr">
         <is>
-          <t>Kiễu</t>
+          <t>Khuật</t>
         </is>
       </c>
       <c r="C991">
@@ -21182,7 +21182,7 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>Kìều</t>
+          <t>Khuấy</t>
         </is>
       </c>
       <c r="C992">
@@ -21203,7 +21203,7 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>Kô</t>
+          <t>Khuot</t>
         </is>
       </c>
       <c r="C993">
@@ -21224,7 +21224,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>Kpuih</t>
+          <t>Kiề</t>
         </is>
       </c>
       <c r="C994">
@@ -21245,7 +21245,7 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>Kra</t>
+          <t>Kiền</t>
         </is>
       </c>
       <c r="C995">
@@ -21266,7 +21266,7 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>Ksor</t>
+          <t>kieu</t>
         </is>
       </c>
       <c r="C996">
@@ -21287,7 +21287,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>KT</t>
+          <t>Kiễu</t>
         </is>
       </c>
       <c r="C997">
@@ -21308,7 +21308,7 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>Kwon</t>
+          <t>Kìều</t>
         </is>
       </c>
       <c r="C998">
@@ -21329,7 +21329,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Kô</t>
         </is>
       </c>
       <c r="C999">
@@ -21350,7 +21350,7 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>Lă</t>
+          <t>Kpuih</t>
         </is>
       </c>
       <c r="C1000">
@@ -21371,7 +21371,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>LAI</t>
+          <t>Kra</t>
         </is>
       </c>
       <c r="C1001">
@@ -21392,7 +21392,7 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Lám</t>
+          <t>Ksor</t>
         </is>
       </c>
       <c r="C1002">
@@ -21413,7 +21413,7 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Lan</t>
+          <t>KT</t>
         </is>
       </c>
       <c r="C1003">
@@ -21434,7 +21434,7 @@
       </c>
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Lạn</t>
+          <t>Kwon</t>
         </is>
       </c>
       <c r="C1004">
@@ -21455,7 +21455,7 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>LĂNG</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C1005">
@@ -21476,7 +21476,7 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Lắng</t>
+          <t>Lă</t>
         </is>
       </c>
       <c r="C1006">
@@ -21497,7 +21497,7 @@
       </c>
       <c r="B1007" t="inlineStr">
         <is>
-          <t>lành</t>
+          <t>LAI</t>
         </is>
       </c>
       <c r="C1007">
@@ -21518,7 +21518,7 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Lảnh</t>
+          <t>Lám</t>
         </is>
       </c>
       <c r="C1008">
@@ -21539,7 +21539,7 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Lao</t>
+          <t>Lan</t>
         </is>
       </c>
       <c r="C1009">
@@ -21560,7 +21560,7 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Lào</t>
+          <t>Lạn</t>
         </is>
       </c>
       <c r="C1010">
@@ -21581,7 +21581,7 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Lão</t>
+          <t>LĂNG</t>
         </is>
       </c>
       <c r="C1011">
@@ -21602,7 +21602,7 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Lãthi</t>
+          <t>Lắng</t>
         </is>
       </c>
       <c r="C1012">
@@ -21623,7 +21623,7 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Làu</t>
+          <t>lành</t>
         </is>
       </c>
       <c r="C1013">
@@ -21644,7 +21644,7 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Lầu</t>
+          <t>Lảnh</t>
         </is>
       </c>
       <c r="C1014">
@@ -21665,7 +21665,7 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Láy</t>
+          <t>Lao</t>
         </is>
       </c>
       <c r="C1015">
@@ -21686,7 +21686,7 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Lề</t>
+          <t>Lào</t>
         </is>
       </c>
       <c r="C1016">
@@ -21707,7 +21707,7 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Lể</t>
+          <t>Lão</t>
         </is>
       </c>
       <c r="C1017">
@@ -21728,7 +21728,7 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Lènh</t>
+          <t>Lãthi</t>
         </is>
       </c>
       <c r="C1018">
@@ -21749,7 +21749,7 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Lềnh</t>
+          <t>Làu</t>
         </is>
       </c>
       <c r="C1019">
@@ -21770,7 +21770,7 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>lèo</t>
+          <t>Lầu</t>
         </is>
       </c>
       <c r="C1020">
@@ -21791,7 +21791,7 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Lẻo</t>
+          <t>Láy</t>
         </is>
       </c>
       <c r="C1021">
@@ -21812,7 +21812,7 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Lịa</t>
+          <t>Lề</t>
         </is>
       </c>
       <c r="C1022">
@@ -21833,7 +21833,7 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Liều</t>
+          <t>Lể</t>
         </is>
       </c>
       <c r="C1023">
@@ -21854,7 +21854,7 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>liễu</t>
+          <t>Lènh</t>
         </is>
       </c>
       <c r="C1024">
@@ -21875,7 +21875,7 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Lin</t>
+          <t>Lềnh</t>
         </is>
       </c>
       <c r="C1025">
@@ -21896,7 +21896,7 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Lịnh</t>
+          <t>lèo</t>
         </is>
       </c>
       <c r="C1026">
@@ -21917,7 +21917,7 @@
       </c>
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Lmef</t>
+          <t>Lẻo</t>
         </is>
       </c>
       <c r="C1027">
@@ -21938,7 +21938,7 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>lo</t>
+          <t>Lịa</t>
         </is>
       </c>
       <c r="C1028">
@@ -21959,7 +21959,7 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>LO</t>
+          <t>Liều</t>
         </is>
       </c>
       <c r="C1029">
@@ -21980,7 +21980,7 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Lổ</t>
+          <t>liễu</t>
         </is>
       </c>
       <c r="C1030">
@@ -22001,7 +22001,7 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Lộ</t>
+          <t>Lin</t>
         </is>
       </c>
       <c r="C1031">
@@ -22022,7 +22022,7 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Lôc</t>
+          <t>Lịnh</t>
         </is>
       </c>
       <c r="C1032">
@@ -22043,7 +22043,7 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>Lộc</t>
+          <t>Lmef</t>
         </is>
       </c>
       <c r="C1033">
@@ -22064,7 +22064,7 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>lộc</t>
+          <t>lo</t>
         </is>
       </c>
       <c r="C1034">
@@ -22085,7 +22085,7 @@
       </c>
       <c r="B1035" t="inlineStr">
         <is>
-          <t>LÔI</t>
+          <t>LO</t>
         </is>
       </c>
       <c r="C1035">
@@ -22106,7 +22106,7 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>Lổ</t>
         </is>
       </c>
       <c r="C1036">
@@ -22127,7 +22127,7 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Lrơng</t>
+          <t>Lộ</t>
         </is>
       </c>
       <c r="C1037">
@@ -22148,7 +22148,7 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>Lru</t>
+          <t>Lôc</t>
         </is>
       </c>
       <c r="C1038">
@@ -22169,7 +22169,7 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Lộc</t>
         </is>
       </c>
       <c r="C1039">
@@ -22190,7 +22190,7 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Lú</t>
+          <t>lộc</t>
         </is>
       </c>
       <c r="C1040">
@@ -22211,7 +22211,7 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Lù</t>
+          <t>LÔI</t>
         </is>
       </c>
       <c r="C1041">
@@ -22232,7 +22232,7 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>lữ</t>
+          <t>long</t>
         </is>
       </c>
       <c r="C1042">
@@ -22253,7 +22253,7 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>lự</t>
+          <t>Lrơng</t>
         </is>
       </c>
       <c r="C1043">
@@ -22274,7 +22274,7 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>luc</t>
+          <t>Lru</t>
         </is>
       </c>
       <c r="C1044">
@@ -22295,7 +22295,7 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>Lueowng</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="C1045">
@@ -22316,7 +22316,7 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Lueu</t>
+          <t>Lú</t>
         </is>
       </c>
       <c r="C1046">
@@ -22337,7 +22337,7 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Lưi</t>
+          <t>Lù</t>
         </is>
       </c>
       <c r="C1047">
@@ -22358,7 +22358,7 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>Lung</t>
+          <t>lữ</t>
         </is>
       </c>
       <c r="C1048">
@@ -22379,7 +22379,7 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Lưng</t>
+          <t>lự</t>
         </is>
       </c>
       <c r="C1049">
@@ -22400,7 +22400,7 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Lứng</t>
+          <t>luc</t>
         </is>
       </c>
       <c r="C1050">
@@ -22421,7 +22421,7 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Lươ</t>
+          <t>Lueowng</t>
         </is>
       </c>
       <c r="C1051">
@@ -22442,7 +22442,7 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>Lưoeng</t>
+          <t>Lueu</t>
         </is>
       </c>
       <c r="C1052">
@@ -22463,7 +22463,7 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Luomg</t>
+          <t>Lưi</t>
         </is>
       </c>
       <c r="C1053">
@@ -22484,7 +22484,7 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Luông</t>
+          <t>Lung</t>
         </is>
       </c>
       <c r="C1054">
@@ -22505,7 +22505,7 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Lướng</t>
+          <t>Lưng</t>
         </is>
       </c>
       <c r="C1055">
@@ -22526,7 +22526,7 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Lưởng</t>
+          <t>Lứng</t>
         </is>
       </c>
       <c r="C1056">
@@ -22547,7 +22547,7 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>Luonng</t>
+          <t>Lươ</t>
         </is>
       </c>
       <c r="C1057">
@@ -22568,7 +22568,7 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>Lữu</t>
+          <t>Lưoeng</t>
         </is>
       </c>
       <c r="C1058">
@@ -22589,7 +22589,7 @@
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Lựu</t>
+          <t>Luomg</t>
         </is>
       </c>
       <c r="C1059">
@@ -22610,7 +22610,7 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Luwu</t>
+          <t>Luông</t>
         </is>
       </c>
       <c r="C1060">
@@ -22631,7 +22631,7 @@
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Luyên</t>
+          <t>Lướng</t>
         </is>
       </c>
       <c r="C1061">
@@ -22652,7 +22652,7 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Lỷ</t>
+          <t>Lưởng</t>
         </is>
       </c>
       <c r="C1062">
@@ -22673,7 +22673,7 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Lỵ</t>
+          <t>Luonng</t>
         </is>
       </c>
       <c r="C1063">
@@ -22694,7 +22694,7 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Mạ</t>
+          <t>Lữu</t>
         </is>
       </c>
       <c r="C1064">
@@ -22715,7 +22715,7 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>Mãi</t>
+          <t>Lựu</t>
         </is>
       </c>
       <c r="C1065">
@@ -22736,7 +22736,7 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>Màn</t>
+          <t>Luwu</t>
         </is>
       </c>
       <c r="C1066">
@@ -22757,7 +22757,7 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Mãn</t>
+          <t>Luyên</t>
         </is>
       </c>
       <c r="C1067">
@@ -22778,7 +22778,7 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Mang</t>
+          <t>Lỷ</t>
         </is>
       </c>
       <c r="C1068">
@@ -22799,7 +22799,7 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Màng</t>
+          <t>Lỵ</t>
         </is>
       </c>
       <c r="C1069">
@@ -22820,7 +22820,7 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>MaThi</t>
+          <t>Mạ</t>
         </is>
       </c>
       <c r="C1070">
@@ -22841,7 +22841,7 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>MẦU</t>
+          <t>Mãi</t>
         </is>
       </c>
       <c r="C1071">
@@ -22862,7 +22862,7 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Mày</t>
+          <t>Màn</t>
         </is>
       </c>
       <c r="C1072">
@@ -22883,7 +22883,7 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>me</t>
+          <t>Mãn</t>
         </is>
       </c>
       <c r="C1073">
@@ -22904,7 +22904,7 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>Mê</t>
+          <t>Mang</t>
         </is>
       </c>
       <c r="C1074">
@@ -22925,7 +22925,7 @@
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Mẻ</t>
+          <t>Màng</t>
         </is>
       </c>
       <c r="C1075">
@@ -22946,7 +22946,7 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Mèo</t>
+          <t>MaThi</t>
         </is>
       </c>
       <c r="C1076">
@@ -22967,7 +22967,7 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Mèvan</t>
+          <t>MẦU</t>
         </is>
       </c>
       <c r="C1077">
@@ -22988,7 +22988,7 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Mguyen</t>
+          <t>Mày</t>
         </is>
       </c>
       <c r="C1078">
@@ -23009,7 +23009,7 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Mguyễn</t>
+          <t>me</t>
         </is>
       </c>
       <c r="C1079">
@@ -23030,7 +23030,7 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Mguyênx</t>
+          <t>Mê</t>
         </is>
       </c>
       <c r="C1080">
@@ -23051,7 +23051,7 @@
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Mguyêxn</t>
+          <t>Mẻ</t>
         </is>
       </c>
       <c r="C1081">
@@ -23072,7 +23072,7 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Mguyo</t>
+          <t>Mèo</t>
         </is>
       </c>
       <c r="C1082">
@@ -23093,7 +23093,7 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>Mèvan</t>
         </is>
       </c>
       <c r="C1083">
@@ -23114,7 +23114,7 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Mo</t>
+          <t>Mguyen</t>
         </is>
       </c>
       <c r="C1084">
@@ -23135,7 +23135,7 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Moha</t>
+          <t>Mguyễn</t>
         </is>
       </c>
       <c r="C1085">
@@ -23156,7 +23156,7 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Moong</t>
+          <t>Mguyênx</t>
         </is>
       </c>
       <c r="C1086">
@@ -23177,7 +23177,7 @@
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Mù</t>
+          <t>Mguyêxn</t>
         </is>
       </c>
       <c r="C1087">
@@ -23198,7 +23198,7 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Mỵ</t>
+          <t>Mguyo</t>
         </is>
       </c>
       <c r="C1088">
@@ -23219,7 +23219,7 @@
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Nàng</t>
+          <t>MN</t>
         </is>
       </c>
       <c r="C1089">
@@ -23240,7 +23240,7 @@
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Năng</t>
+          <t>Mo</t>
         </is>
       </c>
       <c r="C1090">
@@ -23261,7 +23261,7 @@
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t>nâng</t>
+          <t>Moha</t>
         </is>
       </c>
       <c r="C1091">
@@ -23282,7 +23282,7 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>Need</t>
+          <t>Moong</t>
         </is>
       </c>
       <c r="C1092">
@@ -23303,7 +23303,7 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Nfuyeenx</t>
+          <t>Mù</t>
         </is>
       </c>
       <c r="C1093">
@@ -23324,7 +23324,7 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Nfuyên</t>
+          <t>Mỵ</t>
         </is>
       </c>
       <c r="C1094">
@@ -23345,7 +23345,7 @@
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Ng</t>
+          <t>Nàng</t>
         </is>
       </c>
       <c r="C1095">
@@ -23366,7 +23366,7 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>ngần</t>
+          <t>Năng</t>
         </is>
       </c>
       <c r="C1096">
@@ -23387,7 +23387,7 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Ngần</t>
+          <t>nâng</t>
         </is>
       </c>
       <c r="C1097">
@@ -23408,7 +23408,7 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Ngcj</t>
+          <t>Need</t>
         </is>
       </c>
       <c r="C1098">
@@ -23429,7 +23429,7 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Ngễn</t>
+          <t>Nfuyeenx</t>
         </is>
       </c>
       <c r="C1099">
@@ -23450,7 +23450,7 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Ngguyên</t>
+          <t>Nfuyên</t>
         </is>
       </c>
       <c r="C1100">
@@ -23471,7 +23471,7 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Nghễ</t>
+          <t>Ng</t>
         </is>
       </c>
       <c r="C1101">
@@ -23492,7 +23492,7 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Nghĩa</t>
+          <t>ngần</t>
         </is>
       </c>
       <c r="C1102">
@@ -23513,7 +23513,7 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>nghiệm</t>
+          <t>Ngần</t>
         </is>
       </c>
       <c r="C1103">
@@ -23534,7 +23534,7 @@
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>NGHIỆM</t>
+          <t>Ngcj</t>
         </is>
       </c>
       <c r="C1104">
@@ -23555,7 +23555,7 @@
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Nghieu</t>
+          <t>Ngễn</t>
         </is>
       </c>
       <c r="C1105">
@@ -23576,7 +23576,7 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>nghuyễn</t>
+          <t>Ngguyên</t>
         </is>
       </c>
       <c r="C1106">
@@ -23597,7 +23597,7 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>NGIÊM</t>
+          <t>Nghễ</t>
         </is>
       </c>
       <c r="C1107">
@@ -23618,7 +23618,7 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>ngiyen</t>
+          <t>Nghĩa</t>
         </is>
       </c>
       <c r="C1108">
@@ -23639,7 +23639,7 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>Ngiyi</t>
+          <t>nghiệm</t>
         </is>
       </c>
       <c r="C1109">
@@ -23660,7 +23660,7 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>ngo</t>
+          <t>NGHIỆM</t>
         </is>
       </c>
       <c r="C1110">
@@ -23681,7 +23681,7 @@
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>ngộ</t>
+          <t>Nghieu</t>
         </is>
       </c>
       <c r="C1111">
@@ -23702,7 +23702,7 @@
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>NGỌC</t>
+          <t>nghuyễn</t>
         </is>
       </c>
       <c r="C1112">
@@ -23723,7 +23723,7 @@
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Nguhiêm</t>
+          <t>NGIÊM</t>
         </is>
       </c>
       <c r="C1113">
@@ -23744,7 +23744,7 @@
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Ngùng</t>
+          <t>ngiyen</t>
         </is>
       </c>
       <c r="C1114">
@@ -23765,7 +23765,7 @@
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>Người</t>
+          <t>Ngiyi</t>
         </is>
       </c>
       <c r="C1115">
@@ -23786,7 +23786,7 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Nguuye</t>
+          <t>ngo</t>
         </is>
       </c>
       <c r="C1116">
@@ -23807,7 +23807,7 @@
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Nguuyên</t>
+          <t>ngộ</t>
         </is>
       </c>
       <c r="C1117">
@@ -23828,7 +23828,7 @@
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Nguuyễn</t>
+          <t>NGỌC</t>
         </is>
       </c>
       <c r="C1118">
@@ -23849,7 +23849,7 @@
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>nguy</t>
+          <t>Nguhiêm</t>
         </is>
       </c>
       <c r="C1119">
@@ -23870,7 +23870,7 @@
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Nguy</t>
+          <t>Ngùng</t>
         </is>
       </c>
       <c r="C1120">
@@ -23891,7 +23891,7 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Ngụy</t>
+          <t>Người</t>
         </is>
       </c>
       <c r="C1121">
@@ -23912,7 +23912,7 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Nguyân</t>
+          <t>Nguuye</t>
         </is>
       </c>
       <c r="C1122">
@@ -23933,7 +23933,7 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>nguyê</t>
+          <t>Nguuyên</t>
         </is>
       </c>
       <c r="C1123">
@@ -23954,7 +23954,7 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>NGUYEEN</t>
+          <t>Nguuyễn</t>
         </is>
       </c>
       <c r="C1124">
@@ -23975,7 +23975,7 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>nguỷen</t>
+          <t>nguy</t>
         </is>
       </c>
       <c r="C1125">
@@ -23996,7 +23996,7 @@
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>NGUỶEN</t>
+          <t>Nguy</t>
         </is>
       </c>
       <c r="C1126">
@@ -24017,7 +24017,7 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Ngủyẽn</t>
+          <t>Ngụy</t>
         </is>
       </c>
       <c r="C1127">
@@ -24038,7 +24038,7 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Ngủyenx</t>
+          <t>Nguyân</t>
         </is>
       </c>
       <c r="C1128">
@@ -24059,7 +24059,7 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>nguyệt</t>
+          <t>nguyê</t>
         </is>
       </c>
       <c r="C1129">
@@ -24080,7 +24080,7 @@
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>nguyeu</t>
+          <t>NGUYEEN</t>
         </is>
       </c>
       <c r="C1130">
@@ -24101,7 +24101,7 @@
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Nguỹn</t>
+          <t>nguỷen</t>
         </is>
       </c>
       <c r="C1131">
@@ -24122,7 +24122,7 @@
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Nguyyenx</t>
+          <t>NGUỶEN</t>
         </is>
       </c>
       <c r="C1132">
@@ -24143,7 +24143,7 @@
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Ngyễn</t>
+          <t>Ngủyẽn</t>
         </is>
       </c>
       <c r="C1133">
@@ -24164,7 +24164,7 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Ngyuyễn</t>
+          <t>Ngủyenx</t>
         </is>
       </c>
       <c r="C1134">
@@ -24185,7 +24185,7 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Ngyyễn</t>
+          <t>nguyệt</t>
         </is>
       </c>
       <c r="C1135">
@@ -24206,7 +24206,7 @@
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>nhâm</t>
+          <t>nguyeu</t>
         </is>
       </c>
       <c r="C1136">
@@ -24227,7 +24227,7 @@
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Nhan</t>
+          <t>Nguỹn</t>
         </is>
       </c>
       <c r="C1137">
@@ -24248,7 +24248,7 @@
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>Nhguyeenx</t>
+          <t>Nguyyenx</t>
         </is>
       </c>
       <c r="C1138">
@@ -24269,7 +24269,7 @@
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>Nhiem</t>
+          <t>Ngyễn</t>
         </is>
       </c>
       <c r="C1139">
@@ -24290,7 +24290,7 @@
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>Nhiễm</t>
+          <t>Ngyuyễn</t>
         </is>
       </c>
       <c r="C1140">
@@ -24311,7 +24311,7 @@
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>Nho</t>
+          <t>Ngyyễn</t>
         </is>
       </c>
       <c r="C1141">
@@ -24332,7 +24332,7 @@
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>Nhử</t>
+          <t>nhâm</t>
         </is>
       </c>
       <c r="C1142">
@@ -24353,7 +24353,7 @@
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>Nhuễn</t>
+          <t>Nhan</t>
         </is>
       </c>
       <c r="C1143">
@@ -24374,7 +24374,7 @@
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Nhưng</t>
+          <t>Nhguyeenx</t>
         </is>
       </c>
       <c r="C1144">
@@ -24395,7 +24395,7 @@
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Những</t>
+          <t>Nhiem</t>
         </is>
       </c>
       <c r="C1145">
@@ -24416,7 +24416,7 @@
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>nhuyên</t>
+          <t>Nhiễm</t>
         </is>
       </c>
       <c r="C1146">
@@ -24437,7 +24437,7 @@
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>Nhuyền</t>
+          <t>Nho</t>
         </is>
       </c>
       <c r="C1147">
@@ -24458,7 +24458,7 @@
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Nhuỹen</t>
+          <t>Nhử</t>
         </is>
       </c>
       <c r="C1148">
@@ -24479,7 +24479,7 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>niên</t>
+          <t>Nhuễn</t>
         </is>
       </c>
       <c r="C1149">
@@ -24500,7 +24500,7 @@
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>NINH</t>
+          <t>Nhưng</t>
         </is>
       </c>
       <c r="C1150">
@@ -24521,7 +24521,7 @@
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>nịnh</t>
+          <t>Những</t>
         </is>
       </c>
       <c r="C1151">
@@ -24542,7 +24542,7 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>Nịnh</t>
+          <t>nhuyên</t>
         </is>
       </c>
       <c r="C1152">
@@ -24563,7 +24563,7 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>Nlguyênx</t>
+          <t>Nhuyền</t>
         </is>
       </c>
       <c r="C1153">
@@ -24584,7 +24584,7 @@
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>Nnguyeenx</t>
+          <t>Nhuỹen</t>
         </is>
       </c>
       <c r="C1154">
@@ -24605,7 +24605,7 @@
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>Nó</t>
+          <t>niên</t>
         </is>
       </c>
       <c r="C1155">
@@ -24626,7 +24626,7 @@
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Nò</t>
+          <t>NINH</t>
         </is>
       </c>
       <c r="C1156">
@@ -24647,7 +24647,7 @@
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Nô</t>
+          <t>nịnh</t>
         </is>
       </c>
       <c r="C1157">
@@ -24668,7 +24668,7 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Noàng</t>
+          <t>Nịnh</t>
         </is>
       </c>
       <c r="C1158">
@@ -24689,7 +24689,7 @@
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Nộc</t>
+          <t>Nlguyênx</t>
         </is>
       </c>
       <c r="C1159">
@@ -24710,7 +24710,7 @@
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>nong</t>
+          <t>Nnguyeenx</t>
         </is>
       </c>
       <c r="C1160">
@@ -24731,7 +24731,7 @@
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>Nồng</t>
+          <t>Nó</t>
         </is>
       </c>
       <c r="C1161">
@@ -24752,7 +24752,7 @@
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>Nônh</t>
+          <t>Nò</t>
         </is>
       </c>
       <c r="C1162">
@@ -24773,7 +24773,7 @@
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Nư</t>
+          <t>Nô</t>
         </is>
       </c>
       <c r="C1163">
@@ -24794,7 +24794,7 @@
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>Nuyễn</t>
+          <t>Noàng</t>
         </is>
       </c>
       <c r="C1164">
@@ -24815,7 +24815,7 @@
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>Nuyện</t>
+          <t>Nộc</t>
         </is>
       </c>
       <c r="C1165">
@@ -24836,7 +24836,7 @@
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>Nyuen</t>
+          <t>nong</t>
         </is>
       </c>
       <c r="C1166">
@@ -24857,7 +24857,7 @@
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>Oách</t>
+          <t>Nồng</t>
         </is>
       </c>
       <c r="C1167">
@@ -24878,7 +24878,7 @@
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>ôn</t>
+          <t>Nônh</t>
         </is>
       </c>
       <c r="C1168">
@@ -24899,7 +24899,7 @@
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Pac</t>
+          <t>Nư</t>
         </is>
       </c>
       <c r="C1169">
@@ -24920,7 +24920,7 @@
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Pan</t>
+          <t>Nuyễn</t>
         </is>
       </c>
       <c r="C1170">
@@ -24941,7 +24941,7 @@
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>Nuyện</t>
         </is>
       </c>
       <c r="C1171">
@@ -24962,7 +24962,7 @@
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>pang</t>
+          <t>Nyuen</t>
         </is>
       </c>
       <c r="C1172">
@@ -24983,7 +24983,7 @@
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>Păng</t>
+          <t>Oách</t>
         </is>
       </c>
       <c r="C1173">
@@ -25004,7 +25004,7 @@
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>Pbam</t>
+          <t>ôn</t>
         </is>
       </c>
       <c r="C1174">
@@ -25025,7 +25025,7 @@
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>Phảm</t>
+          <t>Pac</t>
         </is>
       </c>
       <c r="C1175">
@@ -25046,7 +25046,7 @@
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>PHẠN</t>
+          <t>Pan</t>
         </is>
       </c>
       <c r="C1176">
@@ -25067,7 +25067,7 @@
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>Phì</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="C1177">
@@ -25088,7 +25088,7 @@
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Phình</t>
+          <t>pang</t>
         </is>
       </c>
       <c r="C1178">
@@ -25109,7 +25109,7 @@
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>Phsm</t>
+          <t>Păng</t>
         </is>
       </c>
       <c r="C1179">
@@ -25130,7 +25130,7 @@
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>Phưng</t>
+          <t>Pbam</t>
         </is>
       </c>
       <c r="C1180">
@@ -25151,7 +25151,7 @@
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>PHUNGTHI</t>
+          <t>Phảm</t>
         </is>
       </c>
       <c r="C1181">
@@ -25172,7 +25172,7 @@
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Phuong</t>
+          <t>PHẠN</t>
         </is>
       </c>
       <c r="C1182">
@@ -25193,7 +25193,7 @@
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Pjamj</t>
+          <t>Phì</t>
         </is>
       </c>
       <c r="C1183">
@@ -25214,7 +25214,7 @@
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>Pờ</t>
+          <t>Phình</t>
         </is>
       </c>
       <c r="C1184">
@@ -25235,7 +25235,7 @@
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>Pọong</t>
+          <t>Phsm</t>
         </is>
       </c>
       <c r="C1185">
@@ -25256,7 +25256,7 @@
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>Prs</t>
+          <t>Phưng</t>
         </is>
       </c>
       <c r="C1186">
@@ -25277,7 +25277,7 @@
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>Pui</t>
+          <t>PHUNGTHI</t>
         </is>
       </c>
       <c r="C1187">
@@ -25298,7 +25298,7 @@
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Qoang</t>
+          <t>Phuong</t>
         </is>
       </c>
       <c r="C1188">
@@ -25319,7 +25319,7 @@
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>QUAN</t>
+          <t>Pjamj</t>
         </is>
       </c>
       <c r="C1189">
@@ -25340,7 +25340,7 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>QUÁN</t>
+          <t>Pờ</t>
         </is>
       </c>
       <c r="C1190">
@@ -25361,7 +25361,7 @@
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>Quấn</t>
+          <t>Pọong</t>
         </is>
       </c>
       <c r="C1191">
@@ -25382,7 +25382,7 @@
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>QUẢN</t>
+          <t>Prs</t>
         </is>
       </c>
       <c r="C1192">
@@ -25403,7 +25403,7 @@
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>Quáng</t>
+          <t>Pui</t>
         </is>
       </c>
       <c r="C1193">
@@ -25424,7 +25424,7 @@
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>Quanh</t>
+          <t>Qoang</t>
         </is>
       </c>
       <c r="C1194">
@@ -25445,7 +25445,7 @@
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>Quành</t>
+          <t>QUAN</t>
         </is>
       </c>
       <c r="C1195">
@@ -25466,7 +25466,7 @@
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>Quât</t>
+          <t>QUÁN</t>
         </is>
       </c>
       <c r="C1196">
@@ -25487,7 +25487,7 @@
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>quoách</t>
+          <t>Quấn</t>
         </is>
       </c>
       <c r="C1197">
@@ -25508,7 +25508,7 @@
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Quoăng</t>
+          <t>QUẢN</t>
         </is>
       </c>
       <c r="C1198">
@@ -25529,7 +25529,7 @@
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t>Quoảng</t>
+          <t>Quáng</t>
         </is>
       </c>
       <c r="C1199">
@@ -25550,7 +25550,7 @@
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Quý</t>
+          <t>Quanh</t>
         </is>
       </c>
       <c r="C1200">
@@ -25571,7 +25571,7 @@
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Quyách</t>
+          <t>Quành</t>
         </is>
       </c>
       <c r="C1201">
@@ -25592,7 +25592,7 @@
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>quyên</t>
+          <t>Quât</t>
         </is>
       </c>
       <c r="C1202">
@@ -25613,7 +25613,7 @@
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>Quyến</t>
+          <t>quoách</t>
         </is>
       </c>
       <c r="C1203">
@@ -25634,7 +25634,7 @@
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>Quyển</t>
+          <t>Quoăng</t>
         </is>
       </c>
       <c r="C1204">
@@ -25655,7 +25655,7 @@
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>Ra</t>
+          <t>Quoảng</t>
         </is>
       </c>
       <c r="C1205">
@@ -25676,7 +25676,7 @@
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Rần</t>
+          <t>Quý</t>
         </is>
       </c>
       <c r="C1206">
@@ -25697,7 +25697,7 @@
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t>RCOM</t>
+          <t>Quyách</t>
         </is>
       </c>
       <c r="C1207">
@@ -25718,7 +25718,7 @@
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t>Riệu</t>
+          <t>quyên</t>
         </is>
       </c>
       <c r="C1208">
@@ -25739,7 +25739,7 @@
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t>Roman</t>
+          <t>Quyến</t>
         </is>
       </c>
       <c r="C1209">
@@ -25760,7 +25760,7 @@
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t>sằm</t>
+          <t>Quyển</t>
         </is>
       </c>
       <c r="C1210">
@@ -25781,7 +25781,7 @@
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>Sẫm</t>
+          <t>Ra</t>
         </is>
       </c>
       <c r="C1211">
@@ -25802,7 +25802,7 @@
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>Sẩm</t>
+          <t>Rần</t>
         </is>
       </c>
       <c r="C1212">
@@ -25823,7 +25823,7 @@
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t>SầmThiên</t>
+          <t>RCOM</t>
         </is>
       </c>
       <c r="C1213">
@@ -25844,7 +25844,7 @@
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t>Sẵn</t>
+          <t>Riệu</t>
         </is>
       </c>
       <c r="C1214">
@@ -25865,7 +25865,7 @@
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t>Sẳn</t>
+          <t>Roman</t>
         </is>
       </c>
       <c r="C1215">
@@ -25886,7 +25886,7 @@
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t>sần</t>
+          <t>sằm</t>
         </is>
       </c>
       <c r="C1216">
@@ -25907,7 +25907,7 @@
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t>Sần</t>
+          <t>Sẫm</t>
         </is>
       </c>
       <c r="C1217">
@@ -25928,7 +25928,7 @@
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>Sáu</t>
+          <t>Sẩm</t>
         </is>
       </c>
       <c r="C1218">
@@ -25949,7 +25949,7 @@
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>Sển</t>
+          <t>SầmThiên</t>
         </is>
       </c>
       <c r="C1219">
@@ -25970,7 +25970,7 @@
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t>Séo</t>
+          <t>Sẵn</t>
         </is>
       </c>
       <c r="C1220">
@@ -25991,7 +25991,7 @@
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t>Siều</t>
+          <t>Sẳn</t>
         </is>
       </c>
       <c r="C1221">
@@ -26012,7 +26012,7 @@
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t>SIỀU</t>
+          <t>sần</t>
         </is>
       </c>
       <c r="C1222">
@@ -26033,7 +26033,7 @@
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t>Sinh</t>
+          <t>Sần</t>
         </is>
       </c>
       <c r="C1223">
@@ -26054,7 +26054,7 @@
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t>Sòi</t>
+          <t>Sáu</t>
         </is>
       </c>
       <c r="C1224">
@@ -26075,7 +26075,7 @@
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>Son</t>
+          <t>Sển</t>
         </is>
       </c>
       <c r="C1225">
@@ -26096,7 +26096,7 @@
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>Sứ</t>
+          <t>Séo</t>
         </is>
       </c>
       <c r="C1226">
@@ -26117,7 +26117,7 @@
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t>sử</t>
+          <t>Siều</t>
         </is>
       </c>
       <c r="C1227">
@@ -26138,7 +26138,7 @@
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t>Sự</t>
+          <t>SIỀU</t>
         </is>
       </c>
       <c r="C1228">
@@ -26159,7 +26159,7 @@
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Sừn</t>
+          <t>Sinh</t>
         </is>
       </c>
       <c r="C1229">
@@ -26180,7 +26180,7 @@
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t>Sửthu</t>
+          <t>Sòi</t>
         </is>
       </c>
       <c r="C1230">
@@ -26201,7 +26201,7 @@
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t>sỹ</t>
+          <t>Son</t>
         </is>
       </c>
       <c r="C1231">
@@ -26222,7 +26222,7 @@
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>Tà</t>
+          <t>Sứ</t>
         </is>
       </c>
       <c r="C1232">
@@ -26243,7 +26243,7 @@
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>Tấn</t>
+          <t>sử</t>
         </is>
       </c>
       <c r="C1233">
@@ -26264,7 +26264,7 @@
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t>tẩn</t>
+          <t>Sự</t>
         </is>
       </c>
       <c r="C1234">
@@ -26285,7 +26285,7 @@
       </c>
       <c r="B1235" t="inlineStr">
         <is>
-          <t>Tằng</t>
+          <t>Sừn</t>
         </is>
       </c>
       <c r="C1235">
@@ -26306,7 +26306,7 @@
       </c>
       <c r="B1236" t="inlineStr">
         <is>
-          <t>Tầng</t>
+          <t>Sửthu</t>
         </is>
       </c>
       <c r="C1236">
@@ -26327,7 +26327,7 @@
       </c>
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Tặng</t>
+          <t>sỹ</t>
         </is>
       </c>
       <c r="C1237">
@@ -26348,7 +26348,7 @@
       </c>
       <c r="B1238" t="inlineStr">
         <is>
-          <t>TânTuệ</t>
+          <t>Tà</t>
         </is>
       </c>
       <c r="C1238">
@@ -26369,7 +26369,7 @@
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>TeaNf</t>
+          <t>Tấn</t>
         </is>
       </c>
       <c r="C1239">
@@ -26390,7 +26390,7 @@
       </c>
       <c r="B1240" t="inlineStr">
         <is>
-          <t>Teo</t>
+          <t>tẩn</t>
         </is>
       </c>
       <c r="C1240">
@@ -26411,7 +26411,7 @@
       </c>
       <c r="B1241" t="inlineStr">
         <is>
-          <t>Thạc</t>
+          <t>Tằng</t>
         </is>
       </c>
       <c r="C1241">
@@ -26432,7 +26432,7 @@
       </c>
       <c r="B1242" t="inlineStr">
         <is>
-          <t>Thạc</t>
+          <t>Tầng</t>
         </is>
       </c>
       <c r="C1242">
@@ -26453,7 +26453,7 @@
       </c>
       <c r="B1243" t="inlineStr">
         <is>
-          <t>Thẳm</t>
+          <t>Tặng</t>
         </is>
       </c>
       <c r="C1243">
@@ -26474,7 +26474,7 @@
       </c>
       <c r="B1244" t="inlineStr">
         <is>
-          <t>Thâm</t>
+          <t>TânTuệ</t>
         </is>
       </c>
       <c r="C1244">
@@ -26495,7 +26495,7 @@
       </c>
       <c r="B1245" t="inlineStr">
         <is>
-          <t>Thầm</t>
+          <t>TeaNf</t>
         </is>
       </c>
       <c r="C1245">
@@ -26516,7 +26516,7 @@
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t>THẨM</t>
+          <t>Teo</t>
         </is>
       </c>
       <c r="C1246">
@@ -26537,7 +26537,7 @@
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>THÂN</t>
+          <t>Thạc</t>
         </is>
       </c>
       <c r="C1247">
@@ -26558,7 +26558,7 @@
       </c>
       <c r="B1248" t="inlineStr">
         <is>
-          <t>Tháng</t>
+          <t>Thạc</t>
         </is>
       </c>
       <c r="C1248">
@@ -26579,7 +26579,7 @@
       </c>
       <c r="B1249" t="inlineStr">
         <is>
-          <t>Thằng</t>
+          <t>Thẳm</t>
         </is>
       </c>
       <c r="C1249">
@@ -26600,7 +26600,7 @@
       </c>
       <c r="B1250" t="inlineStr">
         <is>
-          <t>Thê</t>
+          <t>Thâm</t>
         </is>
       </c>
       <c r="C1250">
@@ -26621,7 +26621,7 @@
       </c>
       <c r="B1251" t="inlineStr">
         <is>
-          <t>thèn</t>
+          <t>Thầm</t>
         </is>
       </c>
       <c r="C1251">
@@ -26642,7 +26642,7 @@
       </c>
       <c r="B1252" t="inlineStr">
         <is>
-          <t>ThênSảo</t>
+          <t>THẨM</t>
         </is>
       </c>
       <c r="C1252">
@@ -26663,7 +26663,7 @@
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>Thi</t>
+          <t>THÂN</t>
         </is>
       </c>
       <c r="C1253">
@@ -26684,7 +26684,7 @@
       </c>
       <c r="B1254" t="inlineStr">
         <is>
-          <t>thiêu</t>
+          <t>Tháng</t>
         </is>
       </c>
       <c r="C1254">
@@ -26705,7 +26705,7 @@
       </c>
       <c r="B1255" t="inlineStr">
         <is>
-          <t>thiêù</t>
+          <t>Thằng</t>
         </is>
       </c>
       <c r="C1255">
@@ -26726,7 +26726,7 @@
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>Thiều</t>
+          <t>Thê</t>
         </is>
       </c>
       <c r="C1256">
@@ -26747,7 +26747,7 @@
       </c>
       <c r="B1257" t="inlineStr">
         <is>
-          <t>Thiieeuf</t>
+          <t>thèn</t>
         </is>
       </c>
       <c r="C1257">
@@ -26768,7 +26768,7 @@
       </c>
       <c r="B1258" t="inlineStr">
         <is>
-          <t>Thống</t>
+          <t>ThênSảo</t>
         </is>
       </c>
       <c r="C1258">
@@ -26789,7 +26789,7 @@
       </c>
       <c r="B1259" t="inlineStr">
         <is>
-          <t>Thưởng</t>
+          <t>Thi</t>
         </is>
       </c>
       <c r="C1259">
@@ -26810,7 +26810,7 @@
       </c>
       <c r="B1260" t="inlineStr">
         <is>
-          <t>Thuý</t>
+          <t>thiêu</t>
         </is>
       </c>
       <c r="C1260">
@@ -26831,7 +26831,7 @@
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>Thùy</t>
+          <t>thiêù</t>
         </is>
       </c>
       <c r="C1261">
@@ -26852,7 +26852,7 @@
       </c>
       <c r="B1262" t="inlineStr">
         <is>
-          <t>Tiếp</t>
+          <t>Thiều</t>
         </is>
       </c>
       <c r="C1262">
@@ -26873,7 +26873,7 @@
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>Tình</t>
+          <t>Thiieeuf</t>
         </is>
       </c>
       <c r="C1263">
@@ -26894,7 +26894,7 @@
       </c>
       <c r="B1264" t="inlineStr">
         <is>
-          <t>Tình</t>
+          <t>Thống</t>
         </is>
       </c>
       <c r="C1264">
@@ -26915,7 +26915,7 @@
       </c>
       <c r="B1265" t="inlineStr">
         <is>
-          <t>Tirkey</t>
+          <t>Thưởng</t>
         </is>
       </c>
       <c r="C1265">
@@ -26936,7 +26936,7 @@
       </c>
       <c r="B1266" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>Thuý</t>
         </is>
       </c>
       <c r="C1266">
@@ -26957,7 +26957,7 @@
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>TO</t>
+          <t>Thùy</t>
         </is>
       </c>
       <c r="C1267">
@@ -26978,7 +26978,7 @@
       </c>
       <c r="B1268" t="inlineStr">
         <is>
-          <t>Tòng</t>
+          <t>Tiếp</t>
         </is>
       </c>
       <c r="C1268">
@@ -26999,7 +26999,7 @@
       </c>
       <c r="B1269" t="inlineStr">
         <is>
-          <t>Tổng</t>
+          <t>Tình</t>
         </is>
       </c>
       <c r="C1269">
@@ -27020,7 +27020,7 @@
       </c>
       <c r="B1270" t="inlineStr">
         <is>
-          <t>Tr</t>
+          <t>Tình</t>
         </is>
       </c>
       <c r="C1270">
@@ -27041,7 +27041,7 @@
       </c>
       <c r="B1271" t="inlineStr">
         <is>
-          <t>Trâ</t>
+          <t>Tirkey</t>
         </is>
       </c>
       <c r="C1271">
@@ -27062,7 +27062,7 @@
       </c>
       <c r="B1272" t="inlineStr">
         <is>
-          <t>trầ</t>
+          <t>to</t>
         </is>
       </c>
       <c r="C1272">
@@ -27083,7 +27083,7 @@
       </c>
       <c r="B1273" t="inlineStr">
         <is>
-          <t>Trâần</t>
+          <t>TO</t>
         </is>
       </c>
       <c r="C1273">
@@ -27104,7 +27104,7 @@
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>Trâbf</t>
+          <t>Tòng</t>
         </is>
       </c>
       <c r="C1274">
@@ -27125,7 +27125,7 @@
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t>Trainh</t>
+          <t>Tổng</t>
         </is>
       </c>
       <c r="C1275">
@@ -27146,7 +27146,7 @@
       </c>
       <c r="B1276" t="inlineStr">
         <is>
-          <t>Tràm</t>
+          <t>Tr</t>
         </is>
       </c>
       <c r="C1276">
@@ -27167,7 +27167,7 @@
       </c>
       <c r="B1277" t="inlineStr">
         <is>
-          <t>Trầm</t>
+          <t>Trâ</t>
         </is>
       </c>
       <c r="C1277">
@@ -27188,7 +27188,7 @@
       </c>
       <c r="B1278" t="inlineStr">
         <is>
-          <t>tráng</t>
+          <t>trầ</t>
         </is>
       </c>
       <c r="C1278">
@@ -27209,7 +27209,7 @@
       </c>
       <c r="B1279" t="inlineStr">
         <is>
-          <t>Trẩu</t>
+          <t>Trâần</t>
         </is>
       </c>
       <c r="C1279">
@@ -27230,7 +27230,7 @@
       </c>
       <c r="B1280" t="inlineStr">
         <is>
-          <t>trẻ</t>
+          <t>Trâbf</t>
         </is>
       </c>
       <c r="C1280">
@@ -27251,7 +27251,7 @@
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>Trên</t>
+          <t>Trainh</t>
         </is>
       </c>
       <c r="C1281">
@@ -27272,7 +27272,7 @@
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>Trhiều</t>
+          <t>Tràm</t>
         </is>
       </c>
       <c r="C1282">
@@ -27293,7 +27293,7 @@
       </c>
       <c r="B1283" t="inlineStr">
         <is>
-          <t>Tri</t>
+          <t>Trầm</t>
         </is>
       </c>
       <c r="C1283">
@@ -27314,7 +27314,7 @@
       </c>
       <c r="B1284" t="inlineStr">
         <is>
-          <t>Trích</t>
+          <t>tráng</t>
         </is>
       </c>
       <c r="C1284">
@@ -27335,7 +27335,7 @@
       </c>
       <c r="B1285" t="inlineStr">
         <is>
-          <t>Triệ</t>
+          <t>Trẩu</t>
         </is>
       </c>
       <c r="C1285">
@@ -27356,7 +27356,7 @@
       </c>
       <c r="B1286" t="inlineStr">
         <is>
-          <t>Triêêuj</t>
+          <t>trẻ</t>
         </is>
       </c>
       <c r="C1286">
@@ -27377,7 +27377,7 @@
       </c>
       <c r="B1287" t="inlineStr">
         <is>
-          <t>Triệh</t>
+          <t>Trên</t>
         </is>
       </c>
       <c r="C1287">
@@ -27398,7 +27398,7 @@
       </c>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>Trỉeju</t>
+          <t>Trhiều</t>
         </is>
       </c>
       <c r="C1288">
@@ -27419,7 +27419,7 @@
       </c>
       <c r="B1289" t="inlineStr">
         <is>
-          <t>trieu</t>
+          <t>Tri</t>
         </is>
       </c>
       <c r="C1289">
@@ -27440,7 +27440,7 @@
       </c>
       <c r="B1290" t="inlineStr">
         <is>
-          <t>triều</t>
+          <t>Trích</t>
         </is>
       </c>
       <c r="C1290">
@@ -27461,7 +27461,7 @@
       </c>
       <c r="B1291" t="inlineStr">
         <is>
-          <t>Triều</t>
+          <t>Triệ</t>
         </is>
       </c>
       <c r="C1291">
@@ -27482,7 +27482,7 @@
       </c>
       <c r="B1292" t="inlineStr">
         <is>
-          <t>triẻu</t>
+          <t>Triêêuj</t>
         </is>
       </c>
       <c r="C1292">
@@ -27503,7 +27503,7 @@
       </c>
       <c r="B1293" t="inlineStr">
         <is>
-          <t>Trính</t>
+          <t>Triệh</t>
         </is>
       </c>
       <c r="C1293">
@@ -27524,7 +27524,7 @@
       </c>
       <c r="B1294" t="inlineStr">
         <is>
-          <t>Trinhi</t>
+          <t>Trỉeju</t>
         </is>
       </c>
       <c r="C1294">
@@ -27545,7 +27545,7 @@
       </c>
       <c r="B1295" t="inlineStr">
         <is>
-          <t>Trinhk</t>
+          <t>trieu</t>
         </is>
       </c>
       <c r="C1295">
@@ -27566,7 +27566,7 @@
       </c>
       <c r="B1296" t="inlineStr">
         <is>
-          <t>Trinhn</t>
+          <t>triều</t>
         </is>
       </c>
       <c r="C1296">
@@ -27587,7 +27587,7 @@
       </c>
       <c r="B1297" t="inlineStr">
         <is>
-          <t>Trinj</t>
+          <t>Triều</t>
         </is>
       </c>
       <c r="C1297">
@@ -27608,7 +27608,7 @@
       </c>
       <c r="B1298" t="inlineStr">
         <is>
-          <t>Trjnh</t>
+          <t>triẻu</t>
         </is>
       </c>
       <c r="C1298">
@@ -27629,7 +27629,7 @@
       </c>
       <c r="B1299" t="inlineStr">
         <is>
-          <t>Trọ</t>
+          <t>Trính</t>
         </is>
       </c>
       <c r="C1299">
@@ -27650,7 +27650,7 @@
       </c>
       <c r="B1300" t="inlineStr">
         <is>
-          <t>Trồng</t>
+          <t>Trinhi</t>
         </is>
       </c>
       <c r="C1300">
@@ -27671,7 +27671,7 @@
       </c>
       <c r="B1301" t="inlineStr">
         <is>
-          <t>Trụ</t>
+          <t>Trinhk</t>
         </is>
       </c>
       <c r="C1301">
@@ -27692,7 +27692,7 @@
       </c>
       <c r="B1302" t="inlineStr">
         <is>
-          <t>Truần</t>
+          <t>Trinhn</t>
         </is>
       </c>
       <c r="C1302">
@@ -27713,7 +27713,7 @@
       </c>
       <c r="B1303" t="inlineStr">
         <is>
-          <t>Trunhj</t>
+          <t>Trinj</t>
         </is>
       </c>
       <c r="C1303">
@@ -27734,7 +27734,7 @@
       </c>
       <c r="B1304" t="inlineStr">
         <is>
-          <t>Trước</t>
+          <t>Trjnh</t>
         </is>
       </c>
       <c r="C1304">
@@ -27755,7 +27755,7 @@
       </c>
       <c r="B1305" t="inlineStr">
         <is>
-          <t>Trườn</t>
+          <t>Trọ</t>
         </is>
       </c>
       <c r="C1305">
@@ -27776,7 +27776,7 @@
       </c>
       <c r="B1306" t="inlineStr">
         <is>
-          <t>Trượng</t>
+          <t>Trồng</t>
         </is>
       </c>
       <c r="C1306">
@@ -27797,7 +27797,7 @@
       </c>
       <c r="B1307" t="inlineStr">
         <is>
-          <t>Ttaanf</t>
+          <t>Trụ</t>
         </is>
       </c>
       <c r="C1307">
@@ -27818,7 +27818,7 @@
       </c>
       <c r="B1308" t="inlineStr">
         <is>
-          <t>Ttânf</t>
+          <t>Truần</t>
         </is>
       </c>
       <c r="C1308">
@@ -27839,7 +27839,7 @@
       </c>
       <c r="B1309" t="inlineStr">
         <is>
-          <t>Ttieeuj</t>
+          <t>Trunhj</t>
         </is>
       </c>
       <c r="C1309">
@@ -27860,7 +27860,7 @@
       </c>
       <c r="B1310" t="inlineStr">
         <is>
-          <t>Ttiêu</t>
+          <t>Trước</t>
         </is>
       </c>
       <c r="C1310">
@@ -27881,7 +27881,7 @@
       </c>
       <c r="B1311" t="inlineStr">
         <is>
-          <t>Tu</t>
+          <t>Trườn</t>
         </is>
       </c>
       <c r="C1311">
@@ -27902,7 +27902,7 @@
       </c>
       <c r="B1312" t="inlineStr">
         <is>
-          <t>Tư</t>
+          <t>Trượng</t>
         </is>
       </c>
       <c r="C1312">
@@ -27923,7 +27923,7 @@
       </c>
       <c r="B1313" t="inlineStr">
         <is>
-          <t>Từ</t>
+          <t>Ttaanf</t>
         </is>
       </c>
       <c r="C1313">
@@ -27944,7 +27944,7 @@
       </c>
       <c r="B1314" t="inlineStr">
         <is>
-          <t>Tụ</t>
+          <t>Ttânf</t>
         </is>
       </c>
       <c r="C1314">
@@ -27965,7 +27965,7 @@
       </c>
       <c r="B1315" t="inlineStr">
         <is>
-          <t>Tung</t>
+          <t>Ttieeuj</t>
         </is>
       </c>
       <c r="C1315">
@@ -27986,7 +27986,7 @@
       </c>
       <c r="B1316" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>Ttiêu</t>
         </is>
       </c>
       <c r="C1316">
@@ -28007,7 +28007,7 @@
       </c>
       <c r="B1317" t="inlineStr">
         <is>
-          <t>Uống</t>
+          <t>Tu</t>
         </is>
       </c>
       <c r="C1317">
@@ -28028,7 +28028,7 @@
       </c>
       <c r="B1318" t="inlineStr">
         <is>
-          <t>Uyên</t>
+          <t>Tư</t>
         </is>
       </c>
       <c r="C1318">
@@ -28049,7 +28049,7 @@
       </c>
       <c r="B1319" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Từ</t>
         </is>
       </c>
       <c r="C1319">
@@ -28070,7 +28070,7 @@
       </c>
       <c r="B1320" t="inlineStr">
         <is>
-          <t>Và</t>
+          <t>Tụ</t>
         </is>
       </c>
       <c r="C1320">
@@ -28091,7 +28091,7 @@
       </c>
       <c r="B1321" t="inlineStr">
         <is>
-          <t>Vạ</t>
+          <t>Tung</t>
         </is>
       </c>
       <c r="C1321">
@@ -28112,7 +28112,7 @@
       </c>
       <c r="B1322" t="inlineStr">
         <is>
-          <t>Vần</t>
+          <t>U</t>
         </is>
       </c>
       <c r="C1322">
@@ -28133,7 +28133,7 @@
       </c>
       <c r="B1323" t="inlineStr">
         <is>
-          <t>Vày</t>
+          <t>Uống</t>
         </is>
       </c>
       <c r="C1323">
@@ -28154,7 +28154,7 @@
       </c>
       <c r="B1324" t="inlineStr">
         <is>
-          <t>Vầy</t>
+          <t>Uyên</t>
         </is>
       </c>
       <c r="C1324">
@@ -28175,7 +28175,7 @@
       </c>
       <c r="B1325" t="inlineStr">
         <is>
-          <t>Vậy</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C1325">
@@ -28196,7 +28196,7 @@
       </c>
       <c r="B1326" t="inlineStr">
         <is>
-          <t>Vê</t>
+          <t>Và</t>
         </is>
       </c>
       <c r="C1326">
@@ -28217,7 +28217,7 @@
       </c>
       <c r="B1327" t="inlineStr">
         <is>
-          <t>Vệ</t>
+          <t>Vạ</t>
         </is>
       </c>
       <c r="C1327">
@@ -28238,7 +28238,7 @@
       </c>
       <c r="B1328" t="inlineStr">
         <is>
-          <t>VỊ</t>
+          <t>Vần</t>
         </is>
       </c>
       <c r="C1328">
@@ -28259,7 +28259,7 @@
       </c>
       <c r="B1329" t="inlineStr">
         <is>
-          <t>Vòong</t>
+          <t>Vày</t>
         </is>
       </c>
       <c r="C1329">
@@ -28280,7 +28280,7 @@
       </c>
       <c r="B1330" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>Vầy</t>
         </is>
       </c>
       <c r="C1330">
@@ -28301,7 +28301,7 @@
       </c>
       <c r="B1331" t="inlineStr">
         <is>
-          <t>Vù</t>
+          <t>Vậy</t>
         </is>
       </c>
       <c r="C1331">
@@ -28322,7 +28322,7 @@
       </c>
       <c r="B1332" t="inlineStr">
         <is>
-          <t>Vum</t>
+          <t>Vê</t>
         </is>
       </c>
       <c r="C1332">
@@ -28343,7 +28343,7 @@
       </c>
       <c r="B1333" t="inlineStr">
         <is>
-          <t>Vườn</t>
+          <t>Vệ</t>
         </is>
       </c>
       <c r="C1333">
@@ -28364,7 +28364,7 @@
       </c>
       <c r="B1334" t="inlineStr">
         <is>
-          <t>Vường</t>
+          <t>VỊ</t>
         </is>
       </c>
       <c r="C1334">
@@ -28385,7 +28385,7 @@
       </c>
       <c r="B1335" t="inlineStr">
         <is>
-          <t>Vượng</t>
+          <t>Vòong</t>
         </is>
       </c>
       <c r="C1335">
@@ -28406,7 +28406,7 @@
       </c>
       <c r="B1336" t="inlineStr">
         <is>
-          <t>Vx</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="C1336">
@@ -28427,7 +28427,7 @@
       </c>
       <c r="B1337" t="inlineStr">
         <is>
-          <t>Vỹ</t>
+          <t>Vù</t>
         </is>
       </c>
       <c r="C1337">
@@ -28448,7 +28448,7 @@
       </c>
       <c r="B1338" t="inlineStr">
         <is>
-          <t>Xà</t>
+          <t>Vum</t>
         </is>
       </c>
       <c r="C1338">
@@ -28469,7 +28469,7 @@
       </c>
       <c r="B1339" t="inlineStr">
         <is>
-          <t>Xái</t>
+          <t>Vườn</t>
         </is>
       </c>
       <c r="C1339">
@@ -28490,7 +28490,7 @@
       </c>
       <c r="B1340" t="inlineStr">
         <is>
-          <t>Xầm</t>
+          <t>Vường</t>
         </is>
       </c>
       <c r="C1340">
@@ -28511,7 +28511,7 @@
       </c>
       <c r="B1341" t="inlineStr">
         <is>
-          <t>Xát</t>
+          <t>Vượng</t>
         </is>
       </c>
       <c r="C1341">
@@ -28532,7 +28532,7 @@
       </c>
       <c r="B1342" t="inlineStr">
         <is>
-          <t>Xên</t>
+          <t>Vx</t>
         </is>
       </c>
       <c r="C1342">
@@ -28553,7 +28553,7 @@
       </c>
       <c r="B1343" t="inlineStr">
         <is>
-          <t>Xéo</t>
+          <t>Vỹ</t>
         </is>
       </c>
       <c r="C1343">
@@ -28574,7 +28574,7 @@
       </c>
       <c r="B1344" t="inlineStr">
         <is>
-          <t>Xì</t>
+          <t>Xà</t>
         </is>
       </c>
       <c r="C1344">
@@ -28595,7 +28595,7 @@
       </c>
       <c r="B1345" t="inlineStr">
         <is>
-          <t>Xín</t>
+          <t>Xái</t>
         </is>
       </c>
       <c r="C1345">
@@ -28616,7 +28616,7 @@
       </c>
       <c r="B1346" t="inlineStr">
         <is>
-          <t>Xìn</t>
+          <t>Xầm</t>
         </is>
       </c>
       <c r="C1346">
@@ -28637,7 +28637,7 @@
       </c>
       <c r="B1347" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>Xát</t>
         </is>
       </c>
       <c r="C1347">
@@ -28658,7 +28658,7 @@
       </c>
       <c r="B1348" t="inlineStr">
         <is>
-          <t>Ỷaafn</t>
+          <t>Xên</t>
         </is>
       </c>
       <c r="C1348">
@@ -28679,7 +28679,7 @@
       </c>
       <c r="B1349" t="inlineStr">
         <is>
-          <t>Yi</t>
+          <t>Xéo</t>
         </is>
       </c>
       <c r="C1349">
@@ -28700,7 +28700,7 @@
       </c>
       <c r="B1350" t="inlineStr">
         <is>
-          <t>ỷieeuj</t>
+          <t>Xì</t>
         </is>
       </c>
       <c r="C1350">
@@ -28721,7 +28721,7 @@
       </c>
       <c r="B1351" t="inlineStr">
         <is>
-          <t>Yoong</t>
+          <t>Xín</t>
         </is>
       </c>
       <c r="C1351">
@@ -28742,16 +28742,142 @@
       </c>
       <c r="B1352" t="inlineStr">
         <is>
+          <t>Xìn</t>
+        </is>
+      </c>
+      <c r="C1352">
+        <v>1</v>
+      </c>
+      <c r="D1352">
+        <v>1442913</v>
+      </c>
+      <c r="E1352">
+        <v>6.930424772664741e-05</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B1353" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="C1353">
+        <v>1</v>
+      </c>
+      <c r="D1353">
+        <v>1442913</v>
+      </c>
+      <c r="E1353">
+        <v>6.930424772664741e-05</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B1354" t="inlineStr">
+        <is>
+          <t>Ỷaafn</t>
+        </is>
+      </c>
+      <c r="C1354">
+        <v>1</v>
+      </c>
+      <c r="D1354">
+        <v>1442913</v>
+      </c>
+      <c r="E1354">
+        <v>6.930424772664741e-05</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B1355" t="inlineStr">
+        <is>
+          <t>Yi</t>
+        </is>
+      </c>
+      <c r="C1355">
+        <v>1</v>
+      </c>
+      <c r="D1355">
+        <v>1442913</v>
+      </c>
+      <c r="E1355">
+        <v>6.930424772664741e-05</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B1356" t="inlineStr">
+        <is>
+          <t>ỷieeuj</t>
+        </is>
+      </c>
+      <c r="C1356">
+        <v>1</v>
+      </c>
+      <c r="D1356">
+        <v>1442913</v>
+      </c>
+      <c r="E1356">
+        <v>6.930424772664741e-05</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B1357" t="inlineStr">
+        <is>
+          <t>Yoong</t>
+        </is>
+      </c>
+      <c r="C1357">
+        <v>1</v>
+      </c>
+      <c r="D1357">
+        <v>1442913</v>
+      </c>
+      <c r="E1357">
+        <v>6.930424772664741e-05</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B1358" t="inlineStr">
+        <is>
           <t>Young</t>
         </is>
       </c>
-      <c r="C1352">
-        <v>1</v>
-      </c>
-      <c r="D1352">
-        <v>1442913</v>
-      </c>
-      <c r="E1352">
+      <c r="C1358">
+        <v>1</v>
+      </c>
+      <c r="D1358">
+        <v>1442913</v>
+      </c>
+      <c r="E1358">
         <v>6.930424772664741e-05</v>
       </c>
     </row>
